--- a/list of spf trials/wwtpdatafinal.xlsx
+++ b/list of spf trials/wwtpdatafinal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis - Algorithm\list of spf trials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9160DDEC-3981-409D-8D25-188A63E373B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B416EE-A3CB-4600-B5C1-B84BE287CB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5655" yWindow="4215" windowWidth="28800" windowHeight="11385" firstSheet="2" activeTab="8" xr2:uid="{90B980EA-84EB-4DE0-975C-648664053EFB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{90B980EA-84EB-4DE0-975C-648664053EFB}"/>
   </bookViews>
   <sheets>
     <sheet name="7sd" sheetId="2" r:id="rId1"/>
@@ -15744,11 +15744,16 @@
   </sheetPr>
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="27" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" s="29" t="s">
@@ -15838,111 +15843,108 @@
         <v>56</v>
       </c>
       <c r="B2" s="77">
-        <f>IFERROR(VLOOKUP($A2&amp;B$1,'27d'!$H:$I,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="C2" s="77">
-        <f>IFERROR(VLOOKUP($A2&amp;C$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A2&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>897</v>
       </c>
       <c r="D2" s="77">
-        <f>IFERROR(VLOOKUP($A2&amp;D$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A2&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>498</v>
       </c>
       <c r="E2" s="77">
-        <f>IFERROR(VLOOKUP($A2&amp;E$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A2&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1378</v>
       </c>
       <c r="F2" s="77">
-        <f>IFERROR(VLOOKUP($A2&amp;F$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A2&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1386</v>
       </c>
       <c r="G2" s="77">
-        <f>IFERROR(VLOOKUP($A2&amp;G$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A2&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1860</v>
       </c>
       <c r="H2" s="77">
-        <f>IFERROR(VLOOKUP($A2&amp;H$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A2&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>3459</v>
       </c>
       <c r="I2" s="77">
-        <f>IFERROR(VLOOKUP($A2&amp;I$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A2&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="J2" s="77">
-        <f>IFERROR(VLOOKUP($A2&amp;J$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A2&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2146.38882777562</v>
       </c>
       <c r="K2" s="77">
-        <f>IFERROR(VLOOKUP($A2&amp;K$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A2&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1535.8727160803398</v>
       </c>
       <c r="L2" s="77">
-        <f>IFERROR(VLOOKUP($A2&amp;L$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A2&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2115</v>
       </c>
       <c r="M2" s="77">
-        <f>IFERROR(VLOOKUP($A2&amp;M$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A2&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1177.2918074971897</v>
       </c>
       <c r="N2" s="77">
-        <f>IFERROR(VLOOKUP($A2&amp;N$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A2&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="O2" s="77">
-        <f>IFERROR(VLOOKUP($A2&amp;O$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A2&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>3240</v>
       </c>
       <c r="P2" s="77">
-        <f>IFERROR(VLOOKUP($A2&amp;P$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A2&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>3707</v>
       </c>
       <c r="Q2" s="77">
-        <f>IFERROR(VLOOKUP($A2&amp;Q$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A2&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1234.5501204892412</v>
       </c>
       <c r="R2" s="77">
-        <f>IFERROR(VLOOKUP($A2&amp;R$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="S2" s="77">
-        <f>IFERROR(VLOOKUP($A2&amp;S$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="T2" s="77">
-        <f>IFERROR(VLOOKUP($A2&amp;T$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A2&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="U2" s="77">
-        <f>IFERROR(VLOOKUP($A2&amp;U$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A2&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="V2" s="77">
-        <f>IFERROR(VLOOKUP($A2&amp;V$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A2&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="W2" s="77">
-        <f>IFERROR(VLOOKUP($A2&amp;W$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A2&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="X2" s="77">
-        <f>IFERROR(VLOOKUP($A2&amp;X$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A2&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="Y2" s="77">
-        <f>IFERROR(VLOOKUP($A2&amp;Y$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A2&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="Z2" s="77">
-        <f>IFERROR(VLOOKUP($A2&amp;Z$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A2&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="AA2" s="77">
-        <f>IFERROR(VLOOKUP($A2&amp;AA$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A2&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="AB2" s="77">
-        <f>IFERROR(VLOOKUP($A2&amp;AB$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A2&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
     </row>
@@ -15951,111 +15953,110 @@
         <v>57</v>
       </c>
       <c r="B3" s="77">
-        <f>IFERROR(VLOOKUP($A3&amp;B$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A3&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="C3" s="77">
-        <f>IFERROR(VLOOKUP($A3&amp;C$1,'27d'!$H:$I,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="D3" s="77">
-        <f>IFERROR(VLOOKUP($A3&amp;D$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A3&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>402</v>
       </c>
       <c r="E3" s="77">
-        <f>IFERROR(VLOOKUP($A3&amp;E$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A3&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>939</v>
       </c>
       <c r="F3" s="77">
-        <f>IFERROR(VLOOKUP($A3&amp;F$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A3&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="G3" s="77">
-        <f>IFERROR(VLOOKUP($A3&amp;G$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A3&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="H3" s="77">
-        <f>IFERROR(VLOOKUP($A3&amp;H$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A3&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="I3" s="77">
-        <f>IFERROR(VLOOKUP($A3&amp;I$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A3&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="J3" s="77">
-        <f>IFERROR(VLOOKUP($A3&amp;J$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A3&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2381.1646310156716</v>
       </c>
       <c r="K3" s="77">
-        <f>IFERROR(VLOOKUP($A3&amp;K$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A3&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1624.0520311861933</v>
       </c>
       <c r="L3" s="77">
-        <f>IFERROR(VLOOKUP($A3&amp;L$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A3&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>3012</v>
       </c>
       <c r="M3" s="77">
-        <f>IFERROR(VLOOKUP($A3&amp;M$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A3&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1180.7201192492655</v>
       </c>
       <c r="N3" s="77">
-        <f>IFERROR(VLOOKUP($A3&amp;N$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A3&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="O3" s="77">
-        <f>IFERROR(VLOOKUP($A3&amp;O$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A3&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2350</v>
       </c>
       <c r="P3" s="77">
-        <f>IFERROR(VLOOKUP($A3&amp;P$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A3&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="Q3" s="77">
-        <f>IFERROR(VLOOKUP($A3&amp;Q$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A3&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1316.9274847158442</v>
       </c>
       <c r="R3" s="77">
-        <f>IFERROR(VLOOKUP($A3&amp;R$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A3&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="S3" s="77">
-        <f>IFERROR(VLOOKUP($A3&amp;S$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A3&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="T3" s="77">
-        <f>IFERROR(VLOOKUP($A3&amp;T$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A3&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="U3" s="77">
-        <f>IFERROR(VLOOKUP($A3&amp;U$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A3&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="V3" s="77">
-        <f>IFERROR(VLOOKUP($A3&amp;V$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A3&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="W3" s="77">
-        <f>IFERROR(VLOOKUP($A3&amp;W$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A3&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="X3" s="77">
-        <f>IFERROR(VLOOKUP($A3&amp;X$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A3&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="Y3" s="77">
-        <f>IFERROR(VLOOKUP($A3&amp;Y$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A3&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="Z3" s="77">
-        <f>IFERROR(VLOOKUP($A3&amp;Z$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A3&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="AA3" s="77">
-        <f>IFERROR(VLOOKUP($A3&amp;AA$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A3&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="AB3" s="77">
-        <f>IFERROR(VLOOKUP($A3&amp;AB$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A3&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
     </row>
@@ -16064,111 +16065,110 @@
         <v>58</v>
       </c>
       <c r="B4" s="77">
-        <f>IFERROR(VLOOKUP($A4&amp;B$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A4&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="C4" s="77">
-        <f>IFERROR(VLOOKUP($A4&amp;C$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A4&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="D4" s="77">
-        <f>IFERROR(VLOOKUP($A4&amp;D$1,'27d'!$H:$I,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="E4" s="77">
-        <f>IFERROR(VLOOKUP($A4&amp;E$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A4&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>876</v>
       </c>
       <c r="F4" s="77">
-        <f>IFERROR(VLOOKUP($A4&amp;F$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A4&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1881</v>
       </c>
       <c r="G4" s="77">
-        <f>IFERROR(VLOOKUP($A4&amp;G$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A4&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1629</v>
       </c>
       <c r="H4" s="77">
-        <f>IFERROR(VLOOKUP($A4&amp;H$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A4&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>3096</v>
       </c>
       <c r="I4" s="77">
-        <f>IFERROR(VLOOKUP($A4&amp;I$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A4&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="J4" s="77">
-        <f>IFERROR(VLOOKUP($A4&amp;J$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A4&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2652.6788346876824</v>
       </c>
       <c r="K4" s="77">
-        <f>IFERROR(VLOOKUP($A4&amp;K$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A4&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1978.7331805981321</v>
       </c>
       <c r="L4" s="77">
-        <f>IFERROR(VLOOKUP($A4&amp;L$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A4&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2643</v>
       </c>
       <c r="M4" s="77">
-        <f>IFERROR(VLOOKUP($A4&amp;M$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A4&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1562.6163956646558</v>
       </c>
       <c r="N4" s="77">
-        <f>IFERROR(VLOOKUP($A4&amp;N$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A4&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="O4" s="77">
-        <f>IFERROR(VLOOKUP($A4&amp;O$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A4&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2837</v>
       </c>
       <c r="P4" s="77">
-        <f>IFERROR(VLOOKUP($A4&amp;P$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A4&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="Q4" s="77">
-        <f>IFERROR(VLOOKUP($A4&amp;Q$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A4&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1670.7866410765919</v>
       </c>
       <c r="R4" s="77">
-        <f>IFERROR(VLOOKUP($A4&amp;R$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A4&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="S4" s="77">
-        <f>IFERROR(VLOOKUP($A4&amp;S$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A4&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="T4" s="77">
-        <f>IFERROR(VLOOKUP($A4&amp;T$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A4&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="U4" s="77">
-        <f>IFERROR(VLOOKUP($A4&amp;U$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A4&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="V4" s="77">
-        <f>IFERROR(VLOOKUP($A4&amp;V$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A4&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="W4" s="77">
-        <f>IFERROR(VLOOKUP($A4&amp;W$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A4&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="X4" s="77">
-        <f>IFERROR(VLOOKUP($A4&amp;X$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A4&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="Y4" s="77">
-        <f>IFERROR(VLOOKUP($A4&amp;Y$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A4&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="Z4" s="77">
-        <f>IFERROR(VLOOKUP($A4&amp;Z$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A4&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="AA4" s="77">
-        <f>IFERROR(VLOOKUP($A4&amp;AA$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A4&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="AB4" s="77">
-        <f>IFERROR(VLOOKUP($A4&amp;AB$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A4&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
     </row>
@@ -16177,111 +16177,110 @@
         <v>59</v>
       </c>
       <c r="B5" s="77">
-        <f>IFERROR(VLOOKUP($A5&amp;B$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A5&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="C5" s="77">
-        <f>IFERROR(VLOOKUP($A5&amp;C$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A5&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="D5" s="77">
-        <f>IFERROR(VLOOKUP($A5&amp;D$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A5&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="E5" s="77">
-        <f>IFERROR(VLOOKUP($A5&amp;E$1,'27d'!$H:$I,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="F5" s="77">
-        <f>IFERROR(VLOOKUP($A5&amp;F$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A5&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="G5" s="77">
-        <f>IFERROR(VLOOKUP($A5&amp;G$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A5&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="H5" s="77">
-        <f>IFERROR(VLOOKUP($A5&amp;H$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A5&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="I5" s="77">
-        <f>IFERROR(VLOOKUP($A5&amp;I$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A5&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="J5" s="77">
-        <f>IFERROR(VLOOKUP($A5&amp;J$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A5&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2914.0487298602266</v>
       </c>
       <c r="K5" s="77">
-        <f>IFERROR(VLOOKUP($A5&amp;K$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A5&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2036</v>
       </c>
       <c r="L5" s="77">
-        <f>IFERROR(VLOOKUP($A5&amp;L$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A5&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="M5" s="77">
-        <f>IFERROR(VLOOKUP($A5&amp;M$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A5&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1549.2530458256326</v>
       </c>
       <c r="N5" s="77">
-        <f>IFERROR(VLOOKUP($A5&amp;N$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A5&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="O5" s="77">
-        <f>IFERROR(VLOOKUP($A5&amp;O$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A5&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1980</v>
       </c>
       <c r="P5" s="77">
-        <f>IFERROR(VLOOKUP($A5&amp;P$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A5&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="Q5" s="77">
-        <f>IFERROR(VLOOKUP($A5&amp;Q$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A5&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1753.7745008979916</v>
       </c>
       <c r="R5" s="77">
-        <f>IFERROR(VLOOKUP($A5&amp;R$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A5&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="S5" s="77">
-        <f>IFERROR(VLOOKUP($A5&amp;S$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A5&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="T5" s="77">
-        <f>IFERROR(VLOOKUP($A5&amp;T$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A5&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="U5" s="77">
-        <f>IFERROR(VLOOKUP($A5&amp;U$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A5&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="V5" s="77">
-        <f>IFERROR(VLOOKUP($A5&amp;V$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A5&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="W5" s="77">
-        <f>IFERROR(VLOOKUP($A5&amp;W$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A5&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="X5" s="77">
-        <f>IFERROR(VLOOKUP($A5&amp;X$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A5&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="Y5" s="77">
-        <f>IFERROR(VLOOKUP($A5&amp;Y$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A5&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="Z5" s="77">
-        <f>IFERROR(VLOOKUP($A5&amp;Z$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A5&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="AA5" s="77">
-        <f>IFERROR(VLOOKUP($A5&amp;AA$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A5&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="AB5" s="77">
-        <f>IFERROR(VLOOKUP($A5&amp;AB$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A5&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
     </row>
@@ -16290,111 +16289,110 @@
         <v>60</v>
       </c>
       <c r="B6" s="77">
-        <f>IFERROR(VLOOKUP($A6&amp;B$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A6&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="C6" s="77">
-        <f>IFERROR(VLOOKUP($A6&amp;C$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A6&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="D6" s="77">
-        <f>IFERROR(VLOOKUP($A6&amp;D$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A6&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="E6" s="77">
-        <f>IFERROR(VLOOKUP($A6&amp;E$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A6&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="F6" s="77">
-        <f>IFERROR(VLOOKUP($A6&amp;F$1,'27d'!$H:$I,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G6" s="77">
-        <f>IFERROR(VLOOKUP($A6&amp;G$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A6&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1855</v>
       </c>
       <c r="H6" s="77">
-        <f>IFERROR(VLOOKUP($A6&amp;H$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A6&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2530</v>
       </c>
       <c r="I6" s="77">
-        <f>IFERROR(VLOOKUP($A6&amp;I$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A6&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="J6" s="77">
-        <f>IFERROR(VLOOKUP($A6&amp;J$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A6&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2156.5106074397131</v>
       </c>
       <c r="K6" s="77">
-        <f>IFERROR(VLOOKUP($A6&amp;K$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A6&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1877.5308253128628</v>
       </c>
       <c r="L6" s="77">
-        <f>IFERROR(VLOOKUP($A6&amp;L$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A6&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1890</v>
       </c>
       <c r="M6" s="77">
-        <f>IFERROR(VLOOKUP($A6&amp;M$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A6&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1678.2148253426913</v>
       </c>
       <c r="N6" s="77">
-        <f>IFERROR(VLOOKUP($A6&amp;N$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A6&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="O6" s="77">
-        <f>IFERROR(VLOOKUP($A6&amp;O$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A6&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>3875</v>
       </c>
       <c r="P6" s="77">
-        <f>IFERROR(VLOOKUP($A6&amp;P$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A6&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="Q6" s="77">
-        <f>IFERROR(VLOOKUP($A6&amp;Q$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A6&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1630.0248464363972</v>
       </c>
       <c r="R6" s="77">
-        <f>IFERROR(VLOOKUP($A6&amp;R$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A6&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="S6" s="77">
-        <f>IFERROR(VLOOKUP($A6&amp;S$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A6&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="T6" s="77">
-        <f>IFERROR(VLOOKUP($A6&amp;T$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A6&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="U6" s="77">
-        <f>IFERROR(VLOOKUP($A6&amp;U$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A6&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="V6" s="77">
-        <f>IFERROR(VLOOKUP($A6&amp;V$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A6&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="W6" s="77">
-        <f>IFERROR(VLOOKUP($A6&amp;W$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A6&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="X6" s="77">
-        <f>IFERROR(VLOOKUP($A6&amp;X$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A6&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="Y6" s="77">
-        <f>IFERROR(VLOOKUP($A6&amp;Y$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A6&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="Z6" s="77">
-        <f>IFERROR(VLOOKUP($A6&amp;Z$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A6&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="AA6" s="77">
-        <f>IFERROR(VLOOKUP($A6&amp;AA$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A6&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="AB6" s="77">
-        <f>IFERROR(VLOOKUP($A6&amp;AB$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A6&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
     </row>
@@ -16403,111 +16401,110 @@
         <v>61</v>
       </c>
       <c r="B7" s="77">
-        <f>IFERROR(VLOOKUP($A7&amp;B$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A7&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="C7" s="77">
-        <f>IFERROR(VLOOKUP($A7&amp;C$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A7&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="D7" s="77">
-        <f>IFERROR(VLOOKUP($A7&amp;D$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A7&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="E7" s="77">
-        <f>IFERROR(VLOOKUP($A7&amp;E$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A7&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="F7" s="77">
-        <f>IFERROR(VLOOKUP($A7&amp;F$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A7&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="G7" s="77">
-        <f>IFERROR(VLOOKUP($A7&amp;G$1,'27d'!$H:$I,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H7" s="77">
-        <f>IFERROR(VLOOKUP($A7&amp;H$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A7&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1775</v>
       </c>
       <c r="I7" s="77">
-        <f>IFERROR(VLOOKUP($A7&amp;I$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A7&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>5705</v>
       </c>
       <c r="J7" s="77">
-        <f>IFERROR(VLOOKUP($A7&amp;J$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A7&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2617.7977385581185</v>
       </c>
       <c r="K7" s="77">
-        <f>IFERROR(VLOOKUP($A7&amp;K$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A7&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2402.4622785800407</v>
       </c>
       <c r="L7" s="77">
-        <f>IFERROR(VLOOKUP($A7&amp;L$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A7&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2942</v>
       </c>
       <c r="M7" s="77">
-        <f>IFERROR(VLOOKUP($A7&amp;M$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A7&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2199.4362914165076</v>
       </c>
       <c r="N7" s="77">
-        <f>IFERROR(VLOOKUP($A7&amp;N$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A7&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="O7" s="77">
-        <f>IFERROR(VLOOKUP($A7&amp;O$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A7&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4370</v>
       </c>
       <c r="P7" s="77">
-        <f>IFERROR(VLOOKUP($A7&amp;P$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A7&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="Q7" s="77">
-        <f>IFERROR(VLOOKUP($A7&amp;Q$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A7&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2156.5106074397131</v>
       </c>
       <c r="R7" s="77">
-        <f>IFERROR(VLOOKUP($A7&amp;R$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A7&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="S7" s="77">
-        <f>IFERROR(VLOOKUP($A7&amp;S$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A7&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="T7" s="77">
-        <f>IFERROR(VLOOKUP($A7&amp;T$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A7&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="U7" s="77">
-        <f>IFERROR(VLOOKUP($A7&amp;U$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A7&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="V7" s="77">
-        <f>IFERROR(VLOOKUP($A7&amp;V$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A7&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="W7" s="77">
-        <f>IFERROR(VLOOKUP($A7&amp;W$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A7&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="X7" s="77">
-        <f>IFERROR(VLOOKUP($A7&amp;X$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A7&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="Y7" s="77">
-        <f>IFERROR(VLOOKUP($A7&amp;Y$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A7&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="Z7" s="77">
-        <f>IFERROR(VLOOKUP($A7&amp;Z$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A7&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="AA7" s="77">
-        <f>IFERROR(VLOOKUP($A7&amp;AA$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A7&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="AB7" s="77">
-        <f>IFERROR(VLOOKUP($A7&amp;AB$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A7&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
     </row>
@@ -16516,111 +16513,110 @@
         <v>62</v>
       </c>
       <c r="B8" s="77">
-        <f>IFERROR(VLOOKUP($A8&amp;B$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A8&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="C8" s="77">
-        <f>IFERROR(VLOOKUP($A8&amp;C$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A8&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="D8" s="77">
-        <f>IFERROR(VLOOKUP($A8&amp;D$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A8&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="E8" s="77">
-        <f>IFERROR(VLOOKUP($A8&amp;E$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A8&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="F8" s="77">
-        <f>IFERROR(VLOOKUP($A8&amp;F$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A8&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="G8" s="77">
-        <f>IFERROR(VLOOKUP($A8&amp;G$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A8&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="H8" s="77">
-        <f>IFERROR(VLOOKUP($A8&amp;H$1,'27d'!$H:$I,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I8" s="77">
-        <f>IFERROR(VLOOKUP($A8&amp;I$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A8&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4428</v>
       </c>
       <c r="J8" s="77">
-        <f>IFERROR(VLOOKUP($A8&amp;J$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A8&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2876.0865772782295</v>
       </c>
       <c r="K8" s="77">
-        <f>IFERROR(VLOOKUP($A8&amp;K$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A8&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2968.6027016089574</v>
       </c>
       <c r="L8" s="77">
-        <f>IFERROR(VLOOKUP($A8&amp;L$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A8&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>3204</v>
       </c>
       <c r="M8" s="77">
-        <f>IFERROR(VLOOKUP($A8&amp;M$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A8&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2893.2744425650326</v>
       </c>
       <c r="N8" s="77">
-        <f>IFERROR(VLOOKUP($A8&amp;N$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A8&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="O8" s="77">
-        <f>IFERROR(VLOOKUP($A8&amp;O$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A8&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>5677</v>
       </c>
       <c r="P8" s="77">
-        <f>IFERROR(VLOOKUP($A8&amp;P$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A8&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="Q8" s="77">
-        <f>IFERROR(VLOOKUP($A8&amp;Q$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A8&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2785.9829504144495</v>
       </c>
       <c r="R8" s="77">
-        <f>IFERROR(VLOOKUP($A8&amp;R$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A8&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="S8" s="77">
-        <f>IFERROR(VLOOKUP($A8&amp;S$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A8&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="T8" s="77">
-        <f>IFERROR(VLOOKUP($A8&amp;T$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A8&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="U8" s="77">
-        <f>IFERROR(VLOOKUP($A8&amp;U$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A8&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="V8" s="77">
-        <f>IFERROR(VLOOKUP($A8&amp;V$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A8&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="W8" s="77">
-        <f>IFERROR(VLOOKUP($A8&amp;W$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A8&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="X8" s="77">
-        <f>IFERROR(VLOOKUP($A8&amp;X$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A8&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="Y8" s="77">
-        <f>IFERROR(VLOOKUP($A8&amp;Y$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A8&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="Z8" s="77">
-        <f>IFERROR(VLOOKUP($A8&amp;Z$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A8&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="AA8" s="77">
-        <f>IFERROR(VLOOKUP($A8&amp;AA$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A8&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="AB8" s="77">
-        <f>IFERROR(VLOOKUP($A8&amp;AB$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A8&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
     </row>
@@ -16629,111 +16625,110 @@
         <v>63</v>
       </c>
       <c r="B9" s="77">
-        <f>IFERROR(VLOOKUP($A9&amp;B$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A9&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="C9" s="77">
-        <f>IFERROR(VLOOKUP($A9&amp;C$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A9&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="D9" s="77">
-        <f>IFERROR(VLOOKUP($A9&amp;D$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A9&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="E9" s="77">
-        <f>IFERROR(VLOOKUP($A9&amp;E$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A9&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="F9" s="77">
-        <f>IFERROR(VLOOKUP($A9&amp;F$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A9&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="G9" s="77">
-        <f>IFERROR(VLOOKUP($A9&amp;G$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A9&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="H9" s="77">
-        <f>IFERROR(VLOOKUP($A9&amp;H$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A9&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="I9" s="77">
-        <f>IFERROR(VLOOKUP($A9&amp;I$1,'27d'!$H:$I,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="J9" s="77">
-        <f>IFERROR(VLOOKUP($A9&amp;J$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A9&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2477.6061026724969</v>
       </c>
       <c r="K9" s="77">
-        <f>IFERROR(VLOOKUP($A9&amp;K$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A9&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2811.9238965519676</v>
       </c>
       <c r="L9" s="77">
-        <f>IFERROR(VLOOKUP($A9&amp;L$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A9&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>3545</v>
       </c>
       <c r="M9" s="77">
-        <f>IFERROR(VLOOKUP($A9&amp;M$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A9&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2863.7271168880598</v>
       </c>
       <c r="N9" s="77">
-        <f>IFERROR(VLOOKUP($A9&amp;N$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A9&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="O9" s="77">
-        <f>IFERROR(VLOOKUP($A9&amp;O$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A9&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="P9" s="77">
-        <f>IFERROR(VLOOKUP($A9&amp;P$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A9&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="Q9" s="77">
-        <f>IFERROR(VLOOKUP($A9&amp;Q$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A9&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2701.1384636852663</v>
       </c>
       <c r="R9" s="77">
-        <f>IFERROR(VLOOKUP($A9&amp;R$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A9&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="S9" s="77">
-        <f>IFERROR(VLOOKUP($A9&amp;S$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A9&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="T9" s="77">
-        <f>IFERROR(VLOOKUP($A9&amp;T$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A9&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>8034</v>
       </c>
       <c r="U9" s="77">
-        <f>IFERROR(VLOOKUP($A9&amp;U$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A9&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="V9" s="77">
-        <f>IFERROR(VLOOKUP($A9&amp;V$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A9&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="W9" s="77">
-        <f>IFERROR(VLOOKUP($A9&amp;W$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A9&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="X9" s="77">
-        <f>IFERROR(VLOOKUP($A9&amp;X$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A9&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4953</v>
       </c>
       <c r="Y9" s="77">
-        <f>IFERROR(VLOOKUP($A9&amp;Y$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A9&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>9598</v>
       </c>
       <c r="Z9" s="77">
-        <f>IFERROR(VLOOKUP($A9&amp;Z$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A9&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="AA9" s="77">
-        <f>IFERROR(VLOOKUP($A9&amp;AA$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A9&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="AB9" s="77">
-        <f>IFERROR(VLOOKUP($A9&amp;AB$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A9&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>8284</v>
       </c>
     </row>
@@ -16742,111 +16737,110 @@
         <v>64</v>
       </c>
       <c r="B10" s="77">
-        <f>IFERROR(VLOOKUP($A10&amp;B$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A10&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="C10" s="77">
-        <f>IFERROR(VLOOKUP($A10&amp;C$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A10&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="D10" s="77">
-        <f>IFERROR(VLOOKUP($A10&amp;D$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A10&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="E10" s="77">
-        <f>IFERROR(VLOOKUP($A10&amp;E$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A10&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="F10" s="77">
-        <f>IFERROR(VLOOKUP($A10&amp;F$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A10&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="G10" s="77">
-        <f>IFERROR(VLOOKUP($A10&amp;G$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A10&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="H10" s="77">
-        <f>IFERROR(VLOOKUP($A10&amp;H$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A10&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="I10" s="77">
-        <f>IFERROR(VLOOKUP($A10&amp;I$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A10&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="J10" s="77">
-        <f>IFERROR(VLOOKUP($A10&amp;J$1,'27d'!$H:$I,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="K10" s="77">
-        <f>IFERROR(VLOOKUP($A10&amp;K$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A10&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>979.01991808134323</v>
       </c>
       <c r="L10" s="77">
-        <f>IFERROR(VLOOKUP($A10&amp;L$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A10&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>989.3032901997243</v>
       </c>
       <c r="M10" s="77">
-        <f>IFERROR(VLOOKUP($A10&amp;M$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A10&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1426.7785392274443</v>
       </c>
       <c r="N10" s="77">
-        <f>IFERROR(VLOOKUP($A10&amp;N$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A10&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2150.8000836897882</v>
       </c>
       <c r="O10" s="77">
-        <f>IFERROR(VLOOKUP($A10&amp;O$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A10&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2475.5025752359861</v>
       </c>
       <c r="P10" s="77">
-        <f>IFERROR(VLOOKUP($A10&amp;P$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A10&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2145.372927954485</v>
       </c>
       <c r="Q10" s="77">
-        <f>IFERROR(VLOOKUP($A10&amp;Q$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A10&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1187.7394495427018</v>
       </c>
       <c r="R10" s="77">
-        <f>IFERROR(VLOOKUP($A10&amp;R$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A10&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4152.113317336125</v>
       </c>
       <c r="S10" s="77">
-        <f>IFERROR(VLOOKUP($A10&amp;S$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A10&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2783.6043181458099</v>
       </c>
       <c r="T10" s="77">
-        <f>IFERROR(VLOOKUP($A10&amp;T$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A10&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2868.8691151741309</v>
       </c>
       <c r="U10" s="77">
-        <f>IFERROR(VLOOKUP($A10&amp;U$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A10&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2113.4407964265288</v>
       </c>
       <c r="V10" s="77">
-        <f>IFERROR(VLOOKUP($A10&amp;V$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A10&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1427.7030503574615</v>
       </c>
       <c r="W10" s="77">
-        <f>IFERROR(VLOOKUP($A10&amp;W$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A10&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1515.4491083503926</v>
       </c>
       <c r="X10" s="77">
-        <f>IFERROR(VLOOKUP($A10&amp;X$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A10&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1712.3121794813001</v>
       </c>
       <c r="Y10" s="77">
-        <f>IFERROR(VLOOKUP($A10&amp;Y$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A10&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>5474.2066091809138</v>
       </c>
       <c r="Z10" s="77">
-        <f>IFERROR(VLOOKUP($A10&amp;Z$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A10&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>5193.7287183679509</v>
       </c>
       <c r="AA10" s="77">
-        <f>IFERROR(VLOOKUP($A10&amp;AA$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A10&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4366.2730102456944</v>
       </c>
       <c r="AB10" s="77">
-        <f>IFERROR(VLOOKUP($A10&amp;AB$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A10&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4170.4457795300495</v>
       </c>
     </row>
@@ -16855,111 +16849,110 @@
         <v>65</v>
       </c>
       <c r="B11" s="77">
-        <f>IFERROR(VLOOKUP($A11&amp;B$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A11&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="C11" s="77">
-        <f>IFERROR(VLOOKUP($A11&amp;C$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A11&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="D11" s="77">
-        <f>IFERROR(VLOOKUP($A11&amp;D$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A11&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="E11" s="77">
-        <f>IFERROR(VLOOKUP($A11&amp;E$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A11&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="F11" s="77">
-        <f>IFERROR(VLOOKUP($A11&amp;F$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A11&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="G11" s="77">
-        <f>IFERROR(VLOOKUP($A11&amp;G$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A11&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="H11" s="77">
-        <f>IFERROR(VLOOKUP($A11&amp;H$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A11&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="I11" s="77">
-        <f>IFERROR(VLOOKUP($A11&amp;I$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A11&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="J11" s="77">
-        <f>IFERROR(VLOOKUP($A11&amp;J$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A11&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="K11" s="77">
-        <f>IFERROR(VLOOKUP($A11&amp;K$1,'27d'!$H:$I,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="L11" s="77">
-        <f>IFERROR(VLOOKUP($A11&amp;L$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A11&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1005.3899740896564</v>
       </c>
       <c r="M11" s="77">
-        <f>IFERROR(VLOOKUP($A11&amp;M$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A11&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>487.80426402400377</v>
       </c>
       <c r="N11" s="77">
-        <f>IFERROR(VLOOKUP($A11&amp;N$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A11&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1178.7268555522098</v>
       </c>
       <c r="O11" s="77">
-        <f>IFERROR(VLOOKUP($A11&amp;O$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A11&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1527.6128436223623</v>
       </c>
       <c r="P11" s="77">
-        <f>IFERROR(VLOOKUP($A11&amp;P$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A11&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1176.6091109625149</v>
       </c>
       <c r="Q11" s="77">
-        <f>IFERROR(VLOOKUP($A11&amp;Q$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A11&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>308.25476476447204</v>
       </c>
       <c r="R11" s="77">
-        <f>IFERROR(VLOOKUP($A11&amp;R$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A11&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4691.0183329422198</v>
       </c>
       <c r="S11" s="77">
-        <f>IFERROR(VLOOKUP($A11&amp;S$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A11&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>3660.2870106044961</v>
       </c>
       <c r="T11" s="77">
-        <f>IFERROR(VLOOKUP($A11&amp;T$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A11&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>3827.0262606885781</v>
       </c>
       <c r="U11" s="77">
-        <f>IFERROR(VLOOKUP($A11&amp;U$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A11&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2935.0257239077141</v>
       </c>
       <c r="V11" s="77">
-        <f>IFERROR(VLOOKUP($A11&amp;V$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A11&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2152.1821484251745</v>
       </c>
       <c r="W11" s="77">
-        <f>IFERROR(VLOOKUP($A11&amp;W$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A11&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2491.705038723484</v>
       </c>
       <c r="X11" s="77">
-        <f>IFERROR(VLOOKUP($A11&amp;X$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A11&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2679.3934014996753</v>
       </c>
       <c r="Y11" s="77">
-        <f>IFERROR(VLOOKUP($A11&amp;Y$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A11&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>6381.2376542485863</v>
       </c>
       <c r="Z11" s="77">
-        <f>IFERROR(VLOOKUP($A11&amp;Z$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A11&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>6055.0998340242086</v>
       </c>
       <c r="AA11" s="77">
-        <f>IFERROR(VLOOKUP($A11&amp;AA$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A11&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>5272.0716990572118</v>
       </c>
       <c r="AB11" s="77">
-        <f>IFERROR(VLOOKUP($A11&amp;AB$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A11&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>5094.0547700235811</v>
       </c>
     </row>
@@ -16968,111 +16961,110 @@
         <v>66</v>
       </c>
       <c r="B12" s="77">
-        <f>IFERROR(VLOOKUP($A12&amp;B$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A12&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="C12" s="77">
-        <f>IFERROR(VLOOKUP($A12&amp;C$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A12&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="D12" s="77">
-        <f>IFERROR(VLOOKUP($A12&amp;D$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A12&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="E12" s="77">
-        <f>IFERROR(VLOOKUP($A12&amp;E$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A12&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="F12" s="77">
-        <f>IFERROR(VLOOKUP($A12&amp;F$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A12&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="G12" s="77">
-        <f>IFERROR(VLOOKUP($A12&amp;G$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A12&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="H12" s="77">
-        <f>IFERROR(VLOOKUP($A12&amp;H$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A12&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="I12" s="77">
-        <f>IFERROR(VLOOKUP($A12&amp;I$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A12&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="J12" s="77">
-        <f>IFERROR(VLOOKUP($A12&amp;J$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A12&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="K12" s="77">
-        <f>IFERROR(VLOOKUP($A12&amp;K$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A12&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="L12" s="77">
-        <f>IFERROR(VLOOKUP($A12&amp;L$1,'27d'!$H:$I,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M12" s="77">
-        <f>IFERROR(VLOOKUP($A12&amp;M$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A12&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1130.3848902033324</v>
       </c>
       <c r="N12" s="77">
-        <f>IFERROR(VLOOKUP($A12&amp;N$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A12&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4799</v>
       </c>
       <c r="O12" s="77">
-        <f>IFERROR(VLOOKUP($A12&amp;O$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A12&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4334</v>
       </c>
       <c r="P12" s="77">
-        <f>IFERROR(VLOOKUP($A12&amp;P$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A12&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4804</v>
       </c>
       <c r="Q12" s="77">
-        <f>IFERROR(VLOOKUP($A12&amp;Q$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A12&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>926.6412466537414</v>
       </c>
       <c r="R12" s="77">
-        <f>IFERROR(VLOOKUP($A12&amp;R$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A12&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="S12" s="77">
-        <f>IFERROR(VLOOKUP($A12&amp;S$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A12&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="T12" s="77">
-        <f>IFERROR(VLOOKUP($A12&amp;T$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A12&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="U12" s="77">
-        <f>IFERROR(VLOOKUP($A12&amp;U$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A12&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="V12" s="77">
-        <f>IFERROR(VLOOKUP($A12&amp;V$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A12&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="W12" s="77">
-        <f>IFERROR(VLOOKUP($A12&amp;W$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A12&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="X12" s="77">
-        <f>IFERROR(VLOOKUP($A12&amp;X$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A12&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="Y12" s="77">
-        <f>IFERROR(VLOOKUP($A12&amp;Y$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A12&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="Z12" s="77">
-        <f>IFERROR(VLOOKUP($A12&amp;Z$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A12&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="AA12" s="77">
-        <f>IFERROR(VLOOKUP($A12&amp;AA$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A12&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="AB12" s="77">
-        <f>IFERROR(VLOOKUP($A12&amp;AB$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A12&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
     </row>
@@ -17081,111 +17073,110 @@
         <v>67</v>
       </c>
       <c r="B13" s="77">
-        <f>IFERROR(VLOOKUP($A13&amp;B$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A13&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="C13" s="77">
-        <f>IFERROR(VLOOKUP($A13&amp;C$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A13&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="D13" s="77">
-        <f>IFERROR(VLOOKUP($A13&amp;D$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A13&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="E13" s="77">
-        <f>IFERROR(VLOOKUP($A13&amp;E$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A13&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="F13" s="77">
-        <f>IFERROR(VLOOKUP($A13&amp;F$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A13&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="G13" s="77">
-        <f>IFERROR(VLOOKUP($A13&amp;G$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A13&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="H13" s="77">
-        <f>IFERROR(VLOOKUP($A13&amp;H$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A13&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="I13" s="77">
-        <f>IFERROR(VLOOKUP($A13&amp;I$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A13&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="J13" s="77">
-        <f>IFERROR(VLOOKUP($A13&amp;J$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A13&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="K13" s="77">
-        <f>IFERROR(VLOOKUP($A13&amp;K$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A13&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="L13" s="77">
-        <f>IFERROR(VLOOKUP($A13&amp;L$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A13&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="M13" s="77">
-        <f>IFERROR(VLOOKUP($A13&amp;M$1,'27d'!$H:$I,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="N13" s="77">
-        <f>IFERROR(VLOOKUP($A13&amp;N$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A13&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>847.41961270671572</v>
       </c>
       <c r="O13" s="77">
-        <f>IFERROR(VLOOKUP($A13&amp;O$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A13&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1247.4165302736692</v>
       </c>
       <c r="P13" s="77">
-        <f>IFERROR(VLOOKUP($A13&amp;P$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A13&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>860.08953022345293</v>
       </c>
       <c r="Q13" s="77">
-        <f>IFERROR(VLOOKUP($A13&amp;Q$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A13&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>246.67792767088019</v>
       </c>
       <c r="R13" s="77">
-        <f>IFERROR(VLOOKUP($A13&amp;R$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A13&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>5143.775461662377</v>
       </c>
       <c r="S13" s="77">
-        <f>IFERROR(VLOOKUP($A13&amp;S$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A13&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4145.9387356785674</v>
       </c>
       <c r="T13" s="77">
-        <f>IFERROR(VLOOKUP($A13&amp;T$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A13&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4292.9408335079579</v>
       </c>
       <c r="U13" s="77">
-        <f>IFERROR(VLOOKUP($A13&amp;U$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A13&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>3422.7376469720843</v>
       </c>
       <c r="V13" s="77">
-        <f>IFERROR(VLOOKUP($A13&amp;V$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A13&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2639</v>
       </c>
       <c r="W13" s="77">
-        <f>IFERROR(VLOOKUP($A13&amp;W$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A13&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2917.3523955806231</v>
       </c>
       <c r="X13" s="77">
-        <f>IFERROR(VLOOKUP($A13&amp;X$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A13&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>3138.6939959161359</v>
       </c>
       <c r="Y13" s="77">
-        <f>IFERROR(VLOOKUP($A13&amp;Y$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A13&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>6864.4916053557818</v>
       </c>
       <c r="Z13" s="77">
-        <f>IFERROR(VLOOKUP($A13&amp;Z$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A13&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>6542.4999044707674</v>
       </c>
       <c r="AA13" s="77">
-        <f>IFERROR(VLOOKUP($A13&amp;AA$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A13&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>5755.1629863975186</v>
       </c>
       <c r="AB13" s="77">
-        <f>IFERROR(VLOOKUP($A13&amp;AB$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A13&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>5573.5773969686652</v>
       </c>
     </row>
@@ -17194,111 +17185,110 @@
         <v>68</v>
       </c>
       <c r="B14" s="77">
-        <f>IFERROR(VLOOKUP($A14&amp;B$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A14&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="C14" s="77">
-        <f>IFERROR(VLOOKUP($A14&amp;C$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A14&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="D14" s="77">
-        <f>IFERROR(VLOOKUP($A14&amp;D$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A14&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="E14" s="77">
-        <f>IFERROR(VLOOKUP($A14&amp;E$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A14&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="F14" s="77">
-        <f>IFERROR(VLOOKUP($A14&amp;F$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A14&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="G14" s="77">
-        <f>IFERROR(VLOOKUP($A14&amp;G$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A14&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="H14" s="77">
-        <f>IFERROR(VLOOKUP($A14&amp;H$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A14&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="I14" s="77">
-        <f>IFERROR(VLOOKUP($A14&amp;I$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A14&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="J14" s="77">
-        <f>IFERROR(VLOOKUP($A14&amp;J$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A14&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="K14" s="77">
-        <f>IFERROR(VLOOKUP($A14&amp;K$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A14&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="L14" s="77">
-        <f>IFERROR(VLOOKUP($A14&amp;L$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A14&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="M14" s="77">
-        <f>IFERROR(VLOOKUP($A14&amp;M$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A14&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="N14" s="77">
-        <f>IFERROR(VLOOKUP($A14&amp;N$1,'27d'!$H:$I,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="O14" s="77">
-        <f>IFERROR(VLOOKUP($A14&amp;O$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A14&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>464</v>
       </c>
       <c r="P14" s="77">
-        <f>IFERROR(VLOOKUP($A14&amp;P$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A14&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>41.012193308819754</v>
       </c>
       <c r="Q14" s="77">
-        <f>IFERROR(VLOOKUP($A14&amp;Q$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A14&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1074.2113386107969</v>
       </c>
       <c r="R14" s="77">
-        <f>IFERROR(VLOOKUP($A14&amp;R$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A14&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="S14" s="77">
-        <f>IFERROR(VLOOKUP($A14&amp;S$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A14&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="T14" s="77">
-        <f>IFERROR(VLOOKUP($A14&amp;T$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A14&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="U14" s="77">
-        <f>IFERROR(VLOOKUP($A14&amp;U$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A14&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="V14" s="77">
-        <f>IFERROR(VLOOKUP($A14&amp;V$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A14&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="W14" s="77">
-        <f>IFERROR(VLOOKUP($A14&amp;W$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A14&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="X14" s="77">
-        <f>IFERROR(VLOOKUP($A14&amp;X$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A14&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="Y14" s="77">
-        <f>IFERROR(VLOOKUP($A14&amp;Y$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A14&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="Z14" s="77">
-        <f>IFERROR(VLOOKUP($A14&amp;Z$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A14&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="AA14" s="77">
-        <f>IFERROR(VLOOKUP($A14&amp;AA$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A14&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="AB14" s="77">
-        <f>IFERROR(VLOOKUP($A14&amp;AB$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A14&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
     </row>
@@ -17307,111 +17297,110 @@
         <v>69</v>
       </c>
       <c r="B15" s="77">
-        <f>IFERROR(VLOOKUP($A15&amp;B$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A15&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="C15" s="77">
-        <f>IFERROR(VLOOKUP($A15&amp;C$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A15&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="D15" s="77">
-        <f>IFERROR(VLOOKUP($A15&amp;D$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A15&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="E15" s="77">
-        <f>IFERROR(VLOOKUP($A15&amp;E$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A15&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="F15" s="77">
-        <f>IFERROR(VLOOKUP($A15&amp;F$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A15&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="G15" s="77">
-        <f>IFERROR(VLOOKUP($A15&amp;G$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A15&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="H15" s="77">
-        <f>IFERROR(VLOOKUP($A15&amp;H$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A15&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="I15" s="77">
-        <f>IFERROR(VLOOKUP($A15&amp;I$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A15&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="J15" s="77">
-        <f>IFERROR(VLOOKUP($A15&amp;J$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A15&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="K15" s="77">
-        <f>IFERROR(VLOOKUP($A15&amp;K$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A15&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="L15" s="77">
-        <f>IFERROR(VLOOKUP($A15&amp;L$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A15&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="M15" s="77">
-        <f>IFERROR(VLOOKUP($A15&amp;M$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A15&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="N15" s="77">
-        <f>IFERROR(VLOOKUP($A15&amp;N$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A15&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="O15" s="77">
-        <f>IFERROR(VLOOKUP($A15&amp;O$1,'27d'!$H:$I,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P15" s="77">
-        <f>IFERROR(VLOOKUP($A15&amp;P$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A15&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>390.32550518765743</v>
       </c>
       <c r="Q15" s="77">
-        <f>IFERROR(VLOOKUP($A15&amp;Q$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A15&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1463.3529991085541</v>
       </c>
       <c r="R15" s="77">
-        <f>IFERROR(VLOOKUP($A15&amp;R$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A15&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="S15" s="77">
-        <f>IFERROR(VLOOKUP($A15&amp;S$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A15&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="T15" s="77">
-        <f>IFERROR(VLOOKUP($A15&amp;T$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A15&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="U15" s="77">
-        <f>IFERROR(VLOOKUP($A15&amp;U$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A15&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="V15" s="77">
-        <f>IFERROR(VLOOKUP($A15&amp;V$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A15&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="W15" s="77">
-        <f>IFERROR(VLOOKUP($A15&amp;W$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A15&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="X15" s="77">
-        <f>IFERROR(VLOOKUP($A15&amp;X$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A15&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="Y15" s="77">
-        <f>IFERROR(VLOOKUP($A15&amp;Y$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A15&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="Z15" s="77">
-        <f>IFERROR(VLOOKUP($A15&amp;Z$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A15&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="AA15" s="77">
-        <f>IFERROR(VLOOKUP($A15&amp;AA$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A15&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="AB15" s="77">
-        <f>IFERROR(VLOOKUP($A15&amp;AB$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A15&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
     </row>
@@ -17420,111 +17409,110 @@
         <v>70</v>
       </c>
       <c r="B16" s="77">
-        <f>IFERROR(VLOOKUP($A16&amp;B$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A16&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="C16" s="77">
-        <f>IFERROR(VLOOKUP($A16&amp;C$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A16&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="D16" s="77">
-        <f>IFERROR(VLOOKUP($A16&amp;D$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A16&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="E16" s="77">
-        <f>IFERROR(VLOOKUP($A16&amp;E$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A16&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="F16" s="77">
-        <f>IFERROR(VLOOKUP($A16&amp;F$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A16&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="G16" s="77">
-        <f>IFERROR(VLOOKUP($A16&amp;G$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A16&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="H16" s="77">
-        <f>IFERROR(VLOOKUP($A16&amp;H$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A16&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="I16" s="77">
-        <f>IFERROR(VLOOKUP($A16&amp;I$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A16&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="J16" s="77">
-        <f>IFERROR(VLOOKUP($A16&amp;J$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A16&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="K16" s="77">
-        <f>IFERROR(VLOOKUP($A16&amp;K$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A16&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="L16" s="77">
-        <f>IFERROR(VLOOKUP($A16&amp;L$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A16&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="M16" s="77">
-        <f>IFERROR(VLOOKUP($A16&amp;M$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A16&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="N16" s="77">
-        <f>IFERROR(VLOOKUP($A16&amp;N$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A16&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="O16" s="77">
-        <f>IFERROR(VLOOKUP($A16&amp;O$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A16&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="P16" s="77">
-        <f>IFERROR(VLOOKUP($A16&amp;P$1,'27d'!$H:$I,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="Q16" s="77">
-        <f>IFERROR(VLOOKUP($A16&amp;Q$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A16&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="R16" s="77">
-        <f>IFERROR(VLOOKUP($A16&amp;R$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A16&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="S16" s="77">
-        <f>IFERROR(VLOOKUP($A16&amp;S$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A16&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="T16" s="77">
-        <f>IFERROR(VLOOKUP($A16&amp;T$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A16&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="U16" s="77">
-        <f>IFERROR(VLOOKUP($A16&amp;U$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A16&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="V16" s="77">
-        <f>IFERROR(VLOOKUP($A16&amp;V$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A16&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="W16" s="77">
-        <f>IFERROR(VLOOKUP($A16&amp;W$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A16&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="X16" s="77">
-        <f>IFERROR(VLOOKUP($A16&amp;X$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A16&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="Y16" s="77">
-        <f>IFERROR(VLOOKUP($A16&amp;Y$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A16&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="Z16" s="77">
-        <f>IFERROR(VLOOKUP($A16&amp;Z$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A16&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="AA16" s="77">
-        <f>IFERROR(VLOOKUP($A16&amp;AA$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A16&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="AB16" s="77">
-        <f>IFERROR(VLOOKUP($A16&amp;AB$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A16&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
     </row>
@@ -17533,111 +17521,110 @@
         <v>71</v>
       </c>
       <c r="B17" s="77">
-        <f>IFERROR(VLOOKUP($A17&amp;B$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A17&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="C17" s="77">
-        <f>IFERROR(VLOOKUP($A17&amp;C$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A17&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="D17" s="77">
-        <f>IFERROR(VLOOKUP($A17&amp;D$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A17&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="E17" s="77">
-        <f>IFERROR(VLOOKUP($A17&amp;E$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A17&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="F17" s="77">
-        <f>IFERROR(VLOOKUP($A17&amp;F$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A17&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="G17" s="77">
-        <f>IFERROR(VLOOKUP($A17&amp;G$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A17&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="H17" s="77">
-        <f>IFERROR(VLOOKUP($A17&amp;H$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A17&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="I17" s="77">
-        <f>IFERROR(VLOOKUP($A17&amp;I$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A17&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="J17" s="77">
-        <f>IFERROR(VLOOKUP($A17&amp;J$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A17&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="K17" s="77">
-        <f>IFERROR(VLOOKUP($A17&amp;K$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A17&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="L17" s="77">
-        <f>IFERROR(VLOOKUP($A17&amp;L$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A17&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="M17" s="77">
-        <f>IFERROR(VLOOKUP($A17&amp;M$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A17&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="N17" s="77">
-        <f>IFERROR(VLOOKUP($A17&amp;N$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A17&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="O17" s="77">
-        <f>IFERROR(VLOOKUP($A17&amp;O$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A17&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="P17" s="77">
-        <f>IFERROR(VLOOKUP($A17&amp;P$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A17&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="Q17" s="77">
-        <f>IFERROR(VLOOKUP($A17&amp;Q$1,'27d'!$H:$I,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="R17" s="77">
-        <f>IFERROR(VLOOKUP($A17&amp;R$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A17&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4999.04790935234</v>
       </c>
       <c r="S17" s="77">
-        <f>IFERROR(VLOOKUP($A17&amp;S$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A17&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>3927.9106405314265</v>
       </c>
       <c r="T17" s="77">
-        <f>IFERROR(VLOOKUP($A17&amp;T$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A17&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4056.2654005870968</v>
       </c>
       <c r="U17" s="77">
-        <f>IFERROR(VLOOKUP($A17&amp;U$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A17&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>3214.0580268563913</v>
       </c>
       <c r="V17" s="77">
-        <f>IFERROR(VLOOKUP($A17&amp;V$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A17&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2442.1902055327305</v>
       </c>
       <c r="W17" s="77">
-        <f>IFERROR(VLOOKUP($A17&amp;W$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A17&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2671.840002694772</v>
       </c>
       <c r="X17" s="77">
-        <f>IFERROR(VLOOKUP($A17&amp;X$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A17&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2899.974137815715</v>
       </c>
       <c r="Y17" s="77">
-        <f>IFERROR(VLOOKUP($A17&amp;Y$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A17&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>6640.9777141622753</v>
       </c>
       <c r="Z17" s="77">
-        <f>IFERROR(VLOOKUP($A17&amp;Z$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A17&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>6329.839255462969</v>
       </c>
       <c r="AA17" s="77">
-        <f>IFERROR(VLOOKUP($A17&amp;AA$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A17&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>5531.6642161288137</v>
       </c>
       <c r="AB17" s="77">
-        <f>IFERROR(VLOOKUP($A17&amp;AB$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A17&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>5345.7221214724586</v>
       </c>
     </row>
@@ -17646,111 +17633,110 @@
         <v>72</v>
       </c>
       <c r="B18" s="77">
-        <f>IFERROR(VLOOKUP($A18&amp;B$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A18&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="C18" s="77">
-        <f>IFERROR(VLOOKUP($A18&amp;C$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A18&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="D18" s="77">
-        <f>IFERROR(VLOOKUP($A18&amp;D$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A18&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="E18" s="77">
-        <f>IFERROR(VLOOKUP($A18&amp;E$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A18&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="F18" s="77">
-        <f>IFERROR(VLOOKUP($A18&amp;F$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A18&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="G18" s="77">
-        <f>IFERROR(VLOOKUP($A18&amp;G$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A18&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="H18" s="77">
-        <f>IFERROR(VLOOKUP($A18&amp;H$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A18&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="I18" s="77">
-        <f>IFERROR(VLOOKUP($A18&amp;I$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A18&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="J18" s="77">
-        <f>IFERROR(VLOOKUP($A18&amp;J$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A18&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="K18" s="77">
-        <f>IFERROR(VLOOKUP($A18&amp;K$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A18&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="L18" s="77">
-        <f>IFERROR(VLOOKUP($A18&amp;L$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A18&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="M18" s="77">
-        <f>IFERROR(VLOOKUP($A18&amp;M$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A18&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="N18" s="77">
-        <f>IFERROR(VLOOKUP($A18&amp;N$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A18&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="O18" s="77">
-        <f>IFERROR(VLOOKUP($A18&amp;O$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A18&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="P18" s="77">
-        <f>IFERROR(VLOOKUP($A18&amp;P$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A18&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="Q18" s="77">
-        <f>IFERROR(VLOOKUP($A18&amp;Q$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A18&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="R18" s="77">
-        <f>IFERROR(VLOOKUP($A18&amp;R$1,'27d'!$H:$I,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="S18" s="77">
-        <f>IFERROR(VLOOKUP($A18&amp;S$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A18&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>3613</v>
       </c>
       <c r="T18" s="77">
-        <f>IFERROR(VLOOKUP($A18&amp;T$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A18&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>5131</v>
       </c>
       <c r="U18" s="77">
-        <f>IFERROR(VLOOKUP($A18&amp;U$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A18&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2925</v>
       </c>
       <c r="V18" s="77">
-        <f>IFERROR(VLOOKUP($A18&amp;V$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A18&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>3223</v>
       </c>
       <c r="W18" s="77">
-        <f>IFERROR(VLOOKUP($A18&amp;W$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A18&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4807</v>
       </c>
       <c r="X18" s="77">
-        <f>IFERROR(VLOOKUP($A18&amp;X$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A18&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4417</v>
       </c>
       <c r="Y18" s="77">
-        <f>IFERROR(VLOOKUP($A18&amp;Y$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A18&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="Z18" s="77">
-        <f>IFERROR(VLOOKUP($A18&amp;Z$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A18&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>3884</v>
       </c>
       <c r="AA18" s="77">
-        <f>IFERROR(VLOOKUP($A18&amp;AA$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A18&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="AB18" s="77">
-        <f>IFERROR(VLOOKUP($A18&amp;AB$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A18&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4452</v>
       </c>
     </row>
@@ -17759,111 +17745,110 @@
         <v>73</v>
       </c>
       <c r="B19" s="77">
-        <f>IFERROR(VLOOKUP($A19&amp;B$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A19&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="C19" s="77">
-        <f>IFERROR(VLOOKUP($A19&amp;C$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A19&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="D19" s="77">
-        <f>IFERROR(VLOOKUP($A19&amp;D$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A19&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="E19" s="77">
-        <f>IFERROR(VLOOKUP($A19&amp;E$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A19&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="F19" s="77">
-        <f>IFERROR(VLOOKUP($A19&amp;F$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A19&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="G19" s="77">
-        <f>IFERROR(VLOOKUP($A19&amp;G$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A19&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="H19" s="77">
-        <f>IFERROR(VLOOKUP($A19&amp;H$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A19&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="I19" s="77">
-        <f>IFERROR(VLOOKUP($A19&amp;I$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A19&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="J19" s="77">
-        <f>IFERROR(VLOOKUP($A19&amp;J$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A19&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="K19" s="77">
-        <f>IFERROR(VLOOKUP($A19&amp;K$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A19&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="L19" s="77">
-        <f>IFERROR(VLOOKUP($A19&amp;L$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A19&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="M19" s="77">
-        <f>IFERROR(VLOOKUP($A19&amp;M$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A19&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="N19" s="77">
-        <f>IFERROR(VLOOKUP($A19&amp;N$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A19&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="O19" s="77">
-        <f>IFERROR(VLOOKUP($A19&amp;O$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A19&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="P19" s="77">
-        <f>IFERROR(VLOOKUP($A19&amp;P$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A19&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="Q19" s="77">
-        <f>IFERROR(VLOOKUP($A19&amp;Q$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A19&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="R19" s="77">
-        <f>IFERROR(VLOOKUP($A19&amp;R$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A19&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="S19" s="77">
-        <f>IFERROR(VLOOKUP($A19&amp;S$1,'27d'!$H:$I,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="T19" s="77">
-        <f>IFERROR(VLOOKUP($A19&amp;T$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A19&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2222</v>
       </c>
       <c r="U19" s="77">
-        <f>IFERROR(VLOOKUP($A19&amp;U$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A19&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2334</v>
       </c>
       <c r="V19" s="77">
-        <f>IFERROR(VLOOKUP($A19&amp;V$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A19&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2861</v>
       </c>
       <c r="W19" s="77">
-        <f>IFERROR(VLOOKUP($A19&amp;W$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A19&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2976</v>
       </c>
       <c r="X19" s="77">
-        <f>IFERROR(VLOOKUP($A19&amp;X$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A19&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2576</v>
       </c>
       <c r="Y19" s="77">
-        <f>IFERROR(VLOOKUP($A19&amp;Y$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A19&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="Z19" s="77">
-        <f>IFERROR(VLOOKUP($A19&amp;Z$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A19&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4985</v>
       </c>
       <c r="AA19" s="77">
-        <f>IFERROR(VLOOKUP($A19&amp;AA$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A19&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="AB19" s="77">
-        <f>IFERROR(VLOOKUP($A19&amp;AB$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A19&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2001</v>
       </c>
     </row>
@@ -17872,111 +17857,110 @@
         <v>74</v>
       </c>
       <c r="B20" s="77">
-        <f>IFERROR(VLOOKUP($A20&amp;B$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A20&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="C20" s="77">
-        <f>IFERROR(VLOOKUP($A20&amp;C$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A20&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="D20" s="77">
-        <f>IFERROR(VLOOKUP($A20&amp;D$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A20&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="E20" s="77">
-        <f>IFERROR(VLOOKUP($A20&amp;E$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A20&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="F20" s="77">
-        <f>IFERROR(VLOOKUP($A20&amp;F$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A20&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="G20" s="77">
-        <f>IFERROR(VLOOKUP($A20&amp;G$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A20&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="H20" s="77">
-        <f>IFERROR(VLOOKUP($A20&amp;H$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A20&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="I20" s="77">
-        <f>IFERROR(VLOOKUP($A20&amp;I$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A20&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="J20" s="77">
-        <f>IFERROR(VLOOKUP($A20&amp;J$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A20&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="K20" s="77">
-        <f>IFERROR(VLOOKUP($A20&amp;K$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A20&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="L20" s="77">
-        <f>IFERROR(VLOOKUP($A20&amp;L$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A20&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="M20" s="77">
-        <f>IFERROR(VLOOKUP($A20&amp;M$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A20&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="N20" s="77">
-        <f>IFERROR(VLOOKUP($A20&amp;N$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A20&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="O20" s="77">
-        <f>IFERROR(VLOOKUP($A20&amp;O$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A20&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="P20" s="77">
-        <f>IFERROR(VLOOKUP($A20&amp;P$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A20&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="Q20" s="77">
-        <f>IFERROR(VLOOKUP($A20&amp;Q$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A20&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="R20" s="77">
-        <f>IFERROR(VLOOKUP($A20&amp;R$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A20&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="S20" s="77">
-        <f>IFERROR(VLOOKUP($A20&amp;S$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A20&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="T20" s="77">
-        <f>IFERROR(VLOOKUP($A20&amp;T$1,'27d'!$H:$I,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="U20" s="77">
-        <f>IFERROR(VLOOKUP($A20&amp;U$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A20&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>3908</v>
       </c>
       <c r="V20" s="77">
-        <f>IFERROR(VLOOKUP($A20&amp;V$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A20&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4435</v>
       </c>
       <c r="W20" s="77">
-        <f>IFERROR(VLOOKUP($A20&amp;W$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A20&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4534</v>
       </c>
       <c r="X20" s="77">
-        <f>IFERROR(VLOOKUP($A20&amp;X$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A20&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4120</v>
       </c>
       <c r="Y20" s="77">
-        <f>IFERROR(VLOOKUP($A20&amp;Y$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A20&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="Z20" s="77">
-        <f>IFERROR(VLOOKUP($A20&amp;Z$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A20&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>6493</v>
       </c>
       <c r="AA20" s="77">
-        <f>IFERROR(VLOOKUP($A20&amp;AA$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A20&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="AB20" s="77">
-        <f>IFERROR(VLOOKUP($A20&amp;AB$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A20&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1669</v>
       </c>
     </row>
@@ -17985,111 +17969,110 @@
         <v>75</v>
       </c>
       <c r="B21" s="77">
-        <f>IFERROR(VLOOKUP($A21&amp;B$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A21&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="C21" s="77">
-        <f>IFERROR(VLOOKUP($A21&amp;C$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A21&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="D21" s="77">
-        <f>IFERROR(VLOOKUP($A21&amp;D$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A21&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="E21" s="77">
-        <f>IFERROR(VLOOKUP($A21&amp;E$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A21&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="F21" s="77">
-        <f>IFERROR(VLOOKUP($A21&amp;F$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A21&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="G21" s="77">
-        <f>IFERROR(VLOOKUP($A21&amp;G$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A21&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="H21" s="77">
-        <f>IFERROR(VLOOKUP($A21&amp;H$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A21&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="I21" s="77">
-        <f>IFERROR(VLOOKUP($A21&amp;I$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A21&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="J21" s="77">
-        <f>IFERROR(VLOOKUP($A21&amp;J$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A21&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="K21" s="77">
-        <f>IFERROR(VLOOKUP($A21&amp;K$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A21&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="L21" s="77">
-        <f>IFERROR(VLOOKUP($A21&amp;L$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A21&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="M21" s="77">
-        <f>IFERROR(VLOOKUP($A21&amp;M$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A21&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="N21" s="77">
-        <f>IFERROR(VLOOKUP($A21&amp;N$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A21&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="O21" s="77">
-        <f>IFERROR(VLOOKUP($A21&amp;O$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A21&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="P21" s="77">
-        <f>IFERROR(VLOOKUP($A21&amp;P$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A21&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="Q21" s="77">
-        <f>IFERROR(VLOOKUP($A21&amp;Q$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A21&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="R21" s="77">
-        <f>IFERROR(VLOOKUP($A21&amp;R$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A21&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="S21" s="77">
-        <f>IFERROR(VLOOKUP($A21&amp;S$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A21&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="T21" s="77">
-        <f>IFERROR(VLOOKUP($A21&amp;T$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A21&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="U21" s="77">
-        <f>IFERROR(VLOOKUP($A21&amp;U$1,'27d'!$H:$I,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="V21" s="77">
-        <f>IFERROR(VLOOKUP($A21&amp;V$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A21&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1891</v>
       </c>
       <c r="W21" s="77">
-        <f>IFERROR(VLOOKUP($A21&amp;W$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A21&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2158</v>
       </c>
       <c r="X21" s="77">
-        <f>IFERROR(VLOOKUP($A21&amp;X$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A21&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1759</v>
       </c>
       <c r="Y21" s="77">
-        <f>IFERROR(VLOOKUP($A21&amp;Y$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A21&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="Z21" s="77">
-        <f>IFERROR(VLOOKUP($A21&amp;Z$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A21&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>5690</v>
       </c>
       <c r="AA21" s="77">
-        <f>IFERROR(VLOOKUP($A21&amp;AA$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A21&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="AB21" s="77">
-        <f>IFERROR(VLOOKUP($A21&amp;AB$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A21&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4335</v>
       </c>
     </row>
@@ -18098,111 +18081,110 @@
         <v>76</v>
       </c>
       <c r="B22" s="77">
-        <f>IFERROR(VLOOKUP($A22&amp;B$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A22&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="C22" s="77">
-        <f>IFERROR(VLOOKUP($A22&amp;C$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A22&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="D22" s="77">
-        <f>IFERROR(VLOOKUP($A22&amp;D$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A22&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="E22" s="77">
-        <f>IFERROR(VLOOKUP($A22&amp;E$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A22&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="F22" s="77">
-        <f>IFERROR(VLOOKUP($A22&amp;F$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A22&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="G22" s="77">
-        <f>IFERROR(VLOOKUP($A22&amp;G$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A22&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="H22" s="77">
-        <f>IFERROR(VLOOKUP($A22&amp;H$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A22&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="I22" s="77">
-        <f>IFERROR(VLOOKUP($A22&amp;I$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A22&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="J22" s="77">
-        <f>IFERROR(VLOOKUP($A22&amp;J$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A22&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="K22" s="77">
-        <f>IFERROR(VLOOKUP($A22&amp;K$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A22&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="L22" s="77">
-        <f>IFERROR(VLOOKUP($A22&amp;L$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A22&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="M22" s="77">
-        <f>IFERROR(VLOOKUP($A22&amp;M$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A22&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="N22" s="77">
-        <f>IFERROR(VLOOKUP($A22&amp;N$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A22&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="O22" s="77">
-        <f>IFERROR(VLOOKUP($A22&amp;O$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A22&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="P22" s="77">
-        <f>IFERROR(VLOOKUP($A22&amp;P$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A22&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="Q22" s="77">
-        <f>IFERROR(VLOOKUP($A22&amp;Q$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A22&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="R22" s="77">
-        <f>IFERROR(VLOOKUP($A22&amp;R$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A22&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="S22" s="77">
-        <f>IFERROR(VLOOKUP($A22&amp;S$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A22&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="T22" s="77">
-        <f>IFERROR(VLOOKUP($A22&amp;T$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A22&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="U22" s="77">
-        <f>IFERROR(VLOOKUP($A22&amp;U$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A22&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="V22" s="77">
-        <f>IFERROR(VLOOKUP($A22&amp;V$1,'27d'!$H:$I,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="W22" s="77">
-        <f>IFERROR(VLOOKUP($A22&amp;W$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A22&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2671</v>
       </c>
       <c r="X22" s="77">
-        <f>IFERROR(VLOOKUP($A22&amp;X$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A22&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2275</v>
       </c>
       <c r="Y22" s="77">
-        <f>IFERROR(VLOOKUP($A22&amp;Y$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A22&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="Z22" s="77">
-        <f>IFERROR(VLOOKUP($A22&amp;Z$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A22&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>6042</v>
       </c>
       <c r="AA22" s="77">
-        <f>IFERROR(VLOOKUP($A22&amp;AA$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A22&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="AB22" s="77">
-        <f>IFERROR(VLOOKUP($A22&amp;AB$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A22&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4859</v>
       </c>
     </row>
@@ -18211,111 +18193,110 @@
         <v>77</v>
       </c>
       <c r="B23" s="77">
-        <f>IFERROR(VLOOKUP($A23&amp;B$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A23&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="C23" s="77">
-        <f>IFERROR(VLOOKUP($A23&amp;C$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A23&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="D23" s="77">
-        <f>IFERROR(VLOOKUP($A23&amp;D$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A23&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="E23" s="77">
-        <f>IFERROR(VLOOKUP($A23&amp;E$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A23&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="F23" s="77">
-        <f>IFERROR(VLOOKUP($A23&amp;F$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A23&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="G23" s="77">
-        <f>IFERROR(VLOOKUP($A23&amp;G$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A23&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="H23" s="77">
-        <f>IFERROR(VLOOKUP($A23&amp;H$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A23&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="I23" s="77">
-        <f>IFERROR(VLOOKUP($A23&amp;I$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A23&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="J23" s="77">
-        <f>IFERROR(VLOOKUP($A23&amp;J$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A23&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="K23" s="77">
-        <f>IFERROR(VLOOKUP($A23&amp;K$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A23&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="L23" s="77">
-        <f>IFERROR(VLOOKUP($A23&amp;L$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A23&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="M23" s="77">
-        <f>IFERROR(VLOOKUP($A23&amp;M$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A23&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="N23" s="77">
-        <f>IFERROR(VLOOKUP($A23&amp;N$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A23&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="O23" s="77">
-        <f>IFERROR(VLOOKUP($A23&amp;O$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A23&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="P23" s="77">
-        <f>IFERROR(VLOOKUP($A23&amp;P$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A23&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="Q23" s="77">
-        <f>IFERROR(VLOOKUP($A23&amp;Q$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A23&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="R23" s="77">
-        <f>IFERROR(VLOOKUP($A23&amp;R$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A23&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="S23" s="77">
-        <f>IFERROR(VLOOKUP($A23&amp;S$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A23&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="T23" s="77">
-        <f>IFERROR(VLOOKUP($A23&amp;T$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A23&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="U23" s="77">
-        <f>IFERROR(VLOOKUP($A23&amp;U$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A23&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="V23" s="77">
-        <f>IFERROR(VLOOKUP($A23&amp;V$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A23&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="W23" s="77">
-        <f>IFERROR(VLOOKUP($A23&amp;W$1,'27d'!$H:$I,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="X23" s="77">
-        <f>IFERROR(VLOOKUP($A23&amp;X$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A23&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1372</v>
       </c>
       <c r="Y23" s="77">
-        <f>IFERROR(VLOOKUP($A23&amp;Y$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A23&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="Z23" s="77">
-        <f>IFERROR(VLOOKUP($A23&amp;Z$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A23&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>7628</v>
       </c>
       <c r="AA23" s="77">
-        <f>IFERROR(VLOOKUP($A23&amp;AA$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A23&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="AB23" s="77">
-        <f>IFERROR(VLOOKUP($A23&amp;AB$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A23&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4967</v>
       </c>
     </row>
@@ -18324,111 +18305,110 @@
         <v>78</v>
       </c>
       <c r="B24" s="77">
-        <f>IFERROR(VLOOKUP($A24&amp;B$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A24&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="C24" s="77">
-        <f>IFERROR(VLOOKUP($A24&amp;C$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A24&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="D24" s="77">
-        <f>IFERROR(VLOOKUP($A24&amp;D$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A24&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="E24" s="77">
-        <f>IFERROR(VLOOKUP($A24&amp;E$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A24&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="F24" s="77">
-        <f>IFERROR(VLOOKUP($A24&amp;F$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A24&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="G24" s="77">
-        <f>IFERROR(VLOOKUP($A24&amp;G$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A24&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="H24" s="77">
-        <f>IFERROR(VLOOKUP($A24&amp;H$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A24&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="I24" s="77">
-        <f>IFERROR(VLOOKUP($A24&amp;I$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A24&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="J24" s="77">
-        <f>IFERROR(VLOOKUP($A24&amp;J$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A24&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="K24" s="77">
-        <f>IFERROR(VLOOKUP($A24&amp;K$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A24&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="L24" s="77">
-        <f>IFERROR(VLOOKUP($A24&amp;L$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A24&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="M24" s="77">
-        <f>IFERROR(VLOOKUP($A24&amp;M$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A24&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="N24" s="77">
-        <f>IFERROR(VLOOKUP($A24&amp;N$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A24&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="O24" s="77">
-        <f>IFERROR(VLOOKUP($A24&amp;O$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A24&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="P24" s="77">
-        <f>IFERROR(VLOOKUP($A24&amp;P$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A24&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="Q24" s="77">
-        <f>IFERROR(VLOOKUP($A24&amp;Q$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A24&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="R24" s="77">
-        <f>IFERROR(VLOOKUP($A24&amp;R$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A24&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="S24" s="77">
-        <f>IFERROR(VLOOKUP($A24&amp;S$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A24&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="T24" s="77">
-        <f>IFERROR(VLOOKUP($A24&amp;T$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A24&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="U24" s="77">
-        <f>IFERROR(VLOOKUP($A24&amp;U$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A24&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="V24" s="77">
-        <f>IFERROR(VLOOKUP($A24&amp;V$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A24&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="W24" s="77">
-        <f>IFERROR(VLOOKUP($A24&amp;W$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A24&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="X24" s="77">
-        <f>IFERROR(VLOOKUP($A24&amp;X$1,'27d'!$H:$I,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="Y24" s="77">
-        <f>IFERROR(VLOOKUP($A24&amp;Y$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A24&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="Z24" s="77">
-        <f>IFERROR(VLOOKUP($A24&amp;Z$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A24&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>7232</v>
       </c>
       <c r="AA24" s="77">
-        <f>IFERROR(VLOOKUP($A24&amp;AA$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A24&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="AB24" s="77">
-        <f>IFERROR(VLOOKUP($A24&amp;AB$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A24&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4579</v>
       </c>
     </row>
@@ -18437,111 +18417,110 @@
         <v>79</v>
       </c>
       <c r="B25" s="77">
-        <f>IFERROR(VLOOKUP($A25&amp;B$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A25&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="C25" s="77">
-        <f>IFERROR(VLOOKUP($A25&amp;C$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A25&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="D25" s="77">
-        <f>IFERROR(VLOOKUP($A25&amp;D$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A25&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="E25" s="77">
-        <f>IFERROR(VLOOKUP($A25&amp;E$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A25&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="F25" s="77">
-        <f>IFERROR(VLOOKUP($A25&amp;F$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A25&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="G25" s="77">
-        <f>IFERROR(VLOOKUP($A25&amp;G$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A25&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="H25" s="77">
-        <f>IFERROR(VLOOKUP($A25&amp;H$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A25&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="I25" s="77">
-        <f>IFERROR(VLOOKUP($A25&amp;I$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A25&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="J25" s="77">
-        <f>IFERROR(VLOOKUP($A25&amp;J$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A25&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="K25" s="77">
-        <f>IFERROR(VLOOKUP($A25&amp;K$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A25&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="L25" s="77">
-        <f>IFERROR(VLOOKUP($A25&amp;L$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A25&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="M25" s="77">
-        <f>IFERROR(VLOOKUP($A25&amp;M$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A25&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="N25" s="77">
-        <f>IFERROR(VLOOKUP($A25&amp;N$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A25&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="O25" s="77">
-        <f>IFERROR(VLOOKUP($A25&amp;O$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A25&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="P25" s="77">
-        <f>IFERROR(VLOOKUP($A25&amp;P$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A25&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="Q25" s="77">
-        <f>IFERROR(VLOOKUP($A25&amp;Q$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A25&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="R25" s="77">
-        <f>IFERROR(VLOOKUP($A25&amp;R$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A25&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="S25" s="77">
-        <f>IFERROR(VLOOKUP($A25&amp;S$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A25&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="T25" s="77">
-        <f>IFERROR(VLOOKUP($A25&amp;T$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A25&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="U25" s="77">
-        <f>IFERROR(VLOOKUP($A25&amp;U$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A25&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="V25" s="77">
-        <f>IFERROR(VLOOKUP($A25&amp;V$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A25&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="W25" s="77">
-        <f>IFERROR(VLOOKUP($A25&amp;W$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A25&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="X25" s="77">
-        <f>IFERROR(VLOOKUP($A25&amp;X$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A25&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="Y25" s="77">
-        <f>IFERROR(VLOOKUP($A25&amp;Y$1,'27d'!$H:$I,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="Z25" s="77">
-        <f>IFERROR(VLOOKUP($A25&amp;Z$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A25&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
       <c r="AA25" s="77">
-        <f>IFERROR(VLOOKUP($A25&amp;AA$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A25&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1052</v>
       </c>
       <c r="AB25" s="77">
-        <f>IFERROR(VLOOKUP($A25&amp;AB$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A25&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
     </row>
@@ -18550,112 +18529,111 @@
         <v>80</v>
       </c>
       <c r="B26" s="77">
-        <f>IFERROR(VLOOKUP($A26&amp;B$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A26&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="C26" s="77">
-        <f>IFERROR(VLOOKUP($A26&amp;C$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A26&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="D26" s="77">
-        <f>IFERROR(VLOOKUP($A26&amp;D$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A26&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="E26" s="77">
-        <f>IFERROR(VLOOKUP($A26&amp;E$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A26&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="F26" s="77">
-        <f>IFERROR(VLOOKUP($A26&amp;F$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A26&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="G26" s="77">
-        <f>IFERROR(VLOOKUP($A26&amp;G$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A26&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="H26" s="77">
-        <f>IFERROR(VLOOKUP($A26&amp;H$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A26&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="I26" s="77">
-        <f>IFERROR(VLOOKUP($A26&amp;I$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A26&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="J26" s="77">
-        <f>IFERROR(VLOOKUP($A26&amp;J$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A26&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="K26" s="77">
-        <f>IFERROR(VLOOKUP($A26&amp;K$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A26&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="L26" s="77">
-        <f>IFERROR(VLOOKUP($A26&amp;L$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A26&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="M26" s="77">
-        <f>IFERROR(VLOOKUP($A26&amp;M$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A26&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="N26" s="77">
-        <f>IFERROR(VLOOKUP($A26&amp;N$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A26&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="O26" s="77">
-        <f>IFERROR(VLOOKUP($A26&amp;O$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A26&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="P26" s="77">
-        <f>IFERROR(VLOOKUP($A26&amp;P$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A26&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="Q26" s="77">
-        <f>IFERROR(VLOOKUP($A26&amp;Q$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A26&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="R26" s="77">
-        <f>IFERROR(VLOOKUP($A26&amp;R$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A26&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="S26" s="77">
-        <f>IFERROR(VLOOKUP($A26&amp;S$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A26&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="T26" s="77">
-        <f>IFERROR(VLOOKUP($A26&amp;T$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A26&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="U26" s="77">
-        <f>IFERROR(VLOOKUP($A26&amp;U$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A26&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="V26" s="77">
-        <f>IFERROR(VLOOKUP($A26&amp;V$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A26&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="W26" s="77">
-        <f>IFERROR(VLOOKUP($A26&amp;W$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A26&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="X26" s="77">
-        <f>IFERROR(VLOOKUP($A26&amp;X$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A26&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="Y26" s="77">
-        <f>IFERROR(VLOOKUP($A26&amp;Y$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A26&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="Z26" s="77">
-        <f>IFERROR(VLOOKUP($A26&amp;Z$1,'27d'!$H:$I,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="AA26" s="77">
-        <f>IFERROR(VLOOKUP($A26&amp;AA$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A26&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>6080</v>
       </c>
       <c r="AB26" s="77">
-        <f>IFERROR(VLOOKUP($A26&amp;AB$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A26&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
@@ -18663,111 +18641,110 @@
         <v>81</v>
       </c>
       <c r="B27" s="77">
-        <f>IFERROR(VLOOKUP($A27&amp;B$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A27&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="C27" s="77">
-        <f>IFERROR(VLOOKUP($A27&amp;C$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A27&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="D27" s="77">
-        <f>IFERROR(VLOOKUP($A27&amp;D$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A27&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="E27" s="77">
-        <f>IFERROR(VLOOKUP($A27&amp;E$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A27&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="F27" s="77">
-        <f>IFERROR(VLOOKUP($A27&amp;F$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A27&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="G27" s="77">
-        <f>IFERROR(VLOOKUP($A27&amp;G$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A27&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="H27" s="77">
-        <f>IFERROR(VLOOKUP($A27&amp;H$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A27&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="I27" s="77">
-        <f>IFERROR(VLOOKUP($A27&amp;I$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A27&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="J27" s="77">
-        <f>IFERROR(VLOOKUP($A27&amp;J$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A27&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="K27" s="77">
-        <f>IFERROR(VLOOKUP($A27&amp;K$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A27&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="L27" s="77">
-        <f>IFERROR(VLOOKUP($A27&amp;L$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A27&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="M27" s="77">
-        <f>IFERROR(VLOOKUP($A27&amp;M$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A27&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="N27" s="77">
-        <f>IFERROR(VLOOKUP($A27&amp;N$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A27&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="O27" s="77">
-        <f>IFERROR(VLOOKUP($A27&amp;O$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A27&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="P27" s="77">
-        <f>IFERROR(VLOOKUP($A27&amp;P$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A27&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="Q27" s="77">
-        <f>IFERROR(VLOOKUP($A27&amp;Q$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A27&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="R27" s="77">
-        <f>IFERROR(VLOOKUP($A27&amp;R$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A27&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="S27" s="77">
-        <f>IFERROR(VLOOKUP($A27&amp;S$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A27&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="T27" s="77">
-        <f>IFERROR(VLOOKUP($A27&amp;T$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A27&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="U27" s="77">
-        <f>IFERROR(VLOOKUP($A27&amp;U$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A27&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="V27" s="77">
-        <f>IFERROR(VLOOKUP($A27&amp;V$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A27&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="W27" s="77">
-        <f>IFERROR(VLOOKUP($A27&amp;W$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A27&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="X27" s="77">
-        <f>IFERROR(VLOOKUP($A27&amp;X$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A27&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="Y27" s="77">
-        <f>IFERROR(VLOOKUP($A27&amp;Y$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A27&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="Z27" s="77">
-        <f>IFERROR(VLOOKUP($A27&amp;Z$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A27&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="AA27" s="77">
-        <f>IFERROR(VLOOKUP($A27&amp;AA$1,'27d'!$H:$I,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="AB27" s="77">
-        <f>IFERROR(VLOOKUP($A27&amp;AB$1,'27d'!$H:$I,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A27&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
     </row>
@@ -18776,111 +18753,110 @@
         <v>82</v>
       </c>
       <c r="B28" s="77">
-        <f>IFERROR(VLOOKUP($A28&amp;B$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A28&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="C28" s="77">
-        <f>IFERROR(VLOOKUP($A28&amp;C$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A28&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="D28" s="77">
-        <f>IFERROR(VLOOKUP($A28&amp;D$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A28&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="E28" s="77">
-        <f>IFERROR(VLOOKUP($A28&amp;E$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A28&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="F28" s="77">
-        <f>IFERROR(VLOOKUP($A28&amp;F$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A28&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="G28" s="77">
-        <f>IFERROR(VLOOKUP($A28&amp;G$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A28&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="H28" s="77">
-        <f>IFERROR(VLOOKUP($A28&amp;H$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A28&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="I28" s="77">
-        <f>IFERROR(VLOOKUP($A28&amp;I$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A28&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="J28" s="77">
-        <f>IFERROR(VLOOKUP($A28&amp;J$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A28&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="K28" s="77">
-        <f>IFERROR(VLOOKUP($A28&amp;K$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A28&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="L28" s="77">
-        <f>IFERROR(VLOOKUP($A28&amp;L$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A28&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="M28" s="77">
-        <f>IFERROR(VLOOKUP($A28&amp;M$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A28&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="N28" s="77">
-        <f>IFERROR(VLOOKUP($A28&amp;N$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A28&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="O28" s="77">
-        <f>IFERROR(VLOOKUP($A28&amp;O$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A28&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="P28" s="77">
-        <f>IFERROR(VLOOKUP($A28&amp;P$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A28&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="Q28" s="77">
-        <f>IFERROR(VLOOKUP($A28&amp;Q$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A28&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="R28" s="77">
-        <f>IFERROR(VLOOKUP($A28&amp;R$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A28&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="S28" s="77">
-        <f>IFERROR(VLOOKUP($A28&amp;S$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A28&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="T28" s="77">
-        <f>IFERROR(VLOOKUP($A28&amp;T$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A28&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="U28" s="77">
-        <f>IFERROR(VLOOKUP($A28&amp;U$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A28&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="V28" s="77">
-        <f>IFERROR(VLOOKUP($A28&amp;V$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A28&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="W28" s="77">
-        <f>IFERROR(VLOOKUP($A28&amp;W$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A28&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="X28" s="77">
-        <f>IFERROR(VLOOKUP($A28&amp;X$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A28&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="Y28" s="77">
-        <f>IFERROR(VLOOKUP($A28&amp;Y$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A28&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="Z28" s="77">
-        <f>IFERROR(VLOOKUP($A28&amp;Z$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A28&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="AA28" s="77">
-        <f>IFERROR(VLOOKUP($A28&amp;AA$1,'27d'!$H:$I,2,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A28&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
+        <v>10000000</v>
       </c>
       <c r="AB28" s="77">
-        <f>IFERROR(VLOOKUP($A28&amp;AB$1,'27d'!$H:$I,2,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>

--- a/list of spf trials/wwtpdatafinal.xlsx
+++ b/list of spf trials/wwtpdatafinal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis - Algorithm\list of spf trials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B416EE-A3CB-4600-B5C1-B84BE287CB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4994BA-E69A-43BD-9D9D-73B29B951D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{90B980EA-84EB-4DE0-975C-648664053EFB}"/>
   </bookViews>
@@ -15745,7 +15745,7 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AB9" sqref="AB9"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/list of spf trials/wwtpdatafinal.xlsx
+++ b/list of spf trials/wwtpdatafinal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis - Algorithm\list of spf trials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4994BA-E69A-43BD-9D9D-73B29B951D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6504435-2358-407C-AFFB-C3B7E2FBE1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{90B980EA-84EB-4DE0-975C-648664053EFB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="7" xr2:uid="{90B980EA-84EB-4DE0-975C-648664053EFB}"/>
   </bookViews>
   <sheets>
     <sheet name="7sd" sheetId="2" r:id="rId1"/>
@@ -928,8 +928,23 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -939,18 +954,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -981,9 +984,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1032,14 +1032,14 @@
       <sheetName val="27d - cas"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
       <sheetData sheetId="8">
         <row r="5">
           <cell r="AH5">
@@ -1098,20 +1098,20 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1462,7 +1462,7 @@
       <c r="B3" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="64" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="63" t="s">
@@ -1473,22 +1473,22 @@
       <c r="G3" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="60" t="s">
+      <c r="H3" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="61"/>
+      <c r="I3" s="66"/>
       <c r="J3" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="60" t="s">
+      <c r="K3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="61"/>
+      <c r="L3" s="66"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="2:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B4" s="63"/>
-      <c r="C4" s="66"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1818,14 +1818,14 @@
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62" t="s">
+      <c r="C13" s="67"/>
+      <c r="D13" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="62"/>
+      <c r="E13" s="67"/>
       <c r="F13" s="63" t="s">
         <v>26</v>
       </c>
@@ -1834,10 +1834,10 @@
       <c r="I13" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="65" t="s">
+      <c r="J13" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="64" t="s">
+      <c r="K13" s="61" t="s">
         <v>38</v>
       </c>
       <c r="L13" s="12"/>
@@ -1866,8 +1866,8 @@
         <v>34</v>
       </c>
       <c r="I14" s="63"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="64"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="61"/>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
     </row>
@@ -1967,12 +1967,12 @@
       <c r="E17" s="19">
         <v>6147</v>
       </c>
-      <c r="F17" s="59" t="s">
+      <c r="F17" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
       <c r="J17" s="23" t="str">
         <f t="shared" si="3"/>
         <v>sd0sd3</v>
@@ -2041,12 +2041,12 @@
       <c r="E19" s="19">
         <v>8006</v>
       </c>
-      <c r="F19" s="59" t="s">
+      <c r="F19" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
       <c r="J19" s="23" t="str">
         <f t="shared" si="3"/>
         <v>sd0sd5</v>
@@ -2074,12 +2074,12 @@
       <c r="E20" s="19">
         <v>12069</v>
       </c>
-      <c r="F20" s="59" t="s">
+      <c r="F20" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
       <c r="J20" s="23" t="str">
         <f t="shared" si="3"/>
         <v>sd0sd6</v>
@@ -2218,12 +2218,12 @@
       <c r="E24" s="19">
         <v>8639</v>
       </c>
-      <c r="F24" s="59" t="s">
+      <c r="F24" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
       <c r="J24" s="23" t="str">
         <f t="shared" si="3"/>
         <v>sd1sd5</v>
@@ -2248,12 +2248,12 @@
       <c r="E25" s="19">
         <v>12091</v>
       </c>
-      <c r="F25" s="59" t="s">
+      <c r="F25" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
       <c r="J25" s="23" t="str">
         <f t="shared" si="3"/>
         <v>sd1sd6</v>
@@ -2354,12 +2354,12 @@
       <c r="E28" s="19">
         <v>8961</v>
       </c>
-      <c r="F28" s="59" t="s">
+      <c r="F28" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
       <c r="J28" s="23" t="str">
         <f t="shared" si="3"/>
         <v>sd2sd5</v>
@@ -2384,12 +2384,12 @@
       <c r="E29" s="19">
         <v>12435</v>
       </c>
-      <c r="F29" s="59" t="s">
+      <c r="F29" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
       <c r="J29" s="23" t="str">
         <f t="shared" si="3"/>
         <v>sd2sd6</v>
@@ -2635,11 +2635,7 @@
     <mergeCell ref="F25:I25"/>
     <mergeCell ref="F28:I28"/>
     <mergeCell ref="F29:I29"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="F19:I19"/>
     <mergeCell ref="F17:I17"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="J13:J14"/>
@@ -2649,7 +2645,11 @@
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:J4"/>
-    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:I14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3202,36 +3202,36 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="71" t="s">
+      <c r="B3" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70" t="s">
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="67" t="s">
+      <c r="H3" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="68"/>
-      <c r="J3" s="70" t="s">
+      <c r="I3" s="69"/>
+      <c r="J3" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="67" t="s">
+      <c r="K3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="68"/>
+      <c r="L3" s="69"/>
       <c r="M3" s="25"/>
     </row>
     <row r="4" spans="2:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="72"/>
       <c r="D4" s="26" t="s">
         <v>7</v>
       </c>
@@ -3241,14 +3241,14 @@
       <c r="F4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="70"/>
+      <c r="G4" s="71"/>
       <c r="H4" s="27" t="s">
         <v>10</v>
       </c>
       <c r="I4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="70"/>
+      <c r="J4" s="71"/>
       <c r="K4" s="27" t="s">
         <v>12</v>
       </c>
@@ -3438,26 +3438,26 @@
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69" t="s">
+      <c r="C10" s="70"/>
+      <c r="D10" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="69"/>
-      <c r="F10" s="70" t="s">
+      <c r="E10" s="70"/>
+      <c r="F10" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70" t="s">
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="65" t="s">
+      <c r="J10" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="K10" s="64" t="s">
+      <c r="K10" s="61" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3483,9 +3483,9 @@
       <c r="H11" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="70"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="64"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="61"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
@@ -3909,7 +3909,7 @@
       <c r="B3" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="64" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="63" t="s">
@@ -3920,22 +3920,22 @@
       <c r="G3" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="60" t="s">
+      <c r="H3" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="61"/>
+      <c r="I3" s="66"/>
       <c r="J3" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="60" t="s">
+      <c r="K3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="61"/>
+      <c r="L3" s="66"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="2:13" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B4" s="63"/>
-      <c r="C4" s="66"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
@@ -4101,14 +4101,14 @@
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62" t="s">
+      <c r="C9" s="67"/>
+      <c r="D9" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="62"/>
+      <c r="E9" s="67"/>
       <c r="F9" s="63" t="s">
         <v>26</v>
       </c>
@@ -4117,10 +4117,10 @@
       <c r="I9" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="65" t="s">
+      <c r="J9" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="64" t="s">
+      <c r="K9" s="61" t="s">
         <v>38</v>
       </c>
       <c r="L9" s="12"/>
@@ -4149,8 +4149,8 @@
         <v>34</v>
       </c>
       <c r="I10" s="63"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="64"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="61"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
@@ -4448,8 +4448,8 @@
   </sheetPr>
   <dimension ref="B2:N386"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L68" sqref="L68"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="AA210" sqref="AA210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4462,36 +4462,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="72" t="s">
+      <c r="E2" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72" t="s">
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="72" t="s">
+      <c r="I2" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="72"/>
-      <c r="K2" s="74" t="s">
+      <c r="J2" s="73"/>
+      <c r="K2" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="72" t="s">
+      <c r="L2" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="72"/>
+      <c r="M2" s="73"/>
       <c r="N2" s="32"/>
     </row>
     <row r="3" spans="3:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C3" s="76"/>
-      <c r="D3" s="72"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="73"/>
       <c r="E3" s="33" t="s">
         <v>7</v>
       </c>
@@ -4501,14 +4501,14 @@
       <c r="G3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="72"/>
+      <c r="H3" s="73"/>
       <c r="I3" s="34" t="s">
         <v>51</v>
       </c>
       <c r="J3" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="74"/>
+      <c r="K3" s="75"/>
       <c r="L3" s="34" t="s">
         <v>53</v>
       </c>
@@ -5678,21 +5678,21 @@
       <c r="N33" s="12"/>
     </row>
     <row r="34" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="73" t="s">
+      <c r="C34" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="73"/>
+      <c r="D34" s="74"/>
       <c r="E34" s="43" t="s">
         <v>25</v>
       </c>
       <c r="F34" s="43"/>
-      <c r="G34" s="74" t="s">
+      <c r="G34" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="H34" s="75" t="s">
+      <c r="H34" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="I34" s="64" t="s">
+      <c r="I34" s="61" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5710,9 +5710,9 @@
       <c r="F35" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="G35" s="74"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="64"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="61"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="29">
@@ -15744,8 +15744,8 @@
   </sheetPr>
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15842,108 +15842,108 @@
       <c r="A2" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="77">
-        <v>0</v>
-      </c>
-      <c r="C2" s="77">
+      <c r="B2" s="59">
+        <v>0</v>
+      </c>
+      <c r="C2" s="59">
         <f>IFERROR(VLOOKUP($A2&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>897</v>
       </c>
-      <c r="D2" s="77">
+      <c r="D2" s="59">
         <f>IFERROR(VLOOKUP($A2&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>498</v>
       </c>
-      <c r="E2" s="77">
+      <c r="E2" s="59">
         <f>IFERROR(VLOOKUP($A2&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1378</v>
       </c>
-      <c r="F2" s="77">
+      <c r="F2" s="59">
         <f>IFERROR(VLOOKUP($A2&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1386</v>
       </c>
-      <c r="G2" s="77">
+      <c r="G2" s="59">
         <f>IFERROR(VLOOKUP($A2&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1860</v>
       </c>
-      <c r="H2" s="77">
+      <c r="H2" s="59">
         <f>IFERROR(VLOOKUP($A2&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>3459</v>
       </c>
-      <c r="I2" s="77">
+      <c r="I2" s="59">
         <f>IFERROR(VLOOKUP($A2&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="77">
+      <c r="J2" s="59">
         <f>IFERROR(VLOOKUP($A2&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2146.38882777562</v>
       </c>
-      <c r="K2" s="77">
+      <c r="K2" s="59">
         <f>IFERROR(VLOOKUP($A2&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1535.8727160803398</v>
       </c>
-      <c r="L2" s="77">
+      <c r="L2" s="59">
         <f>IFERROR(VLOOKUP($A2&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2115</v>
       </c>
-      <c r="M2" s="77">
+      <c r="M2" s="59">
         <f>IFERROR(VLOOKUP($A2&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1177.2918074971897</v>
       </c>
-      <c r="N2" s="77">
+      <c r="N2" s="59">
         <f>IFERROR(VLOOKUP($A2&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="O2" s="77">
+      <c r="O2" s="59">
         <f>IFERROR(VLOOKUP($A2&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>3240</v>
       </c>
-      <c r="P2" s="77">
+      <c r="P2" s="59">
         <f>IFERROR(VLOOKUP($A2&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>3707</v>
       </c>
-      <c r="Q2" s="77">
+      <c r="Q2" s="59">
         <f>IFERROR(VLOOKUP($A2&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1234.5501204892412</v>
       </c>
-      <c r="R2" s="77">
-        <v>100000</v>
-      </c>
-      <c r="S2" s="77">
-        <v>100000</v>
-      </c>
-      <c r="T2" s="77">
+      <c r="R2" s="59">
+        <v>0</v>
+      </c>
+      <c r="S2" s="59">
+        <v>0</v>
+      </c>
+      <c r="T2" s="59">
         <f>IFERROR(VLOOKUP($A2&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="U2" s="77">
+      <c r="U2" s="59">
         <f>IFERROR(VLOOKUP($A2&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="V2" s="77">
+      <c r="V2" s="59">
         <f>IFERROR(VLOOKUP($A2&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="W2" s="77">
+      <c r="W2" s="59">
         <f>IFERROR(VLOOKUP($A2&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="X2" s="77">
+      <c r="X2" s="59">
         <f>IFERROR(VLOOKUP($A2&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="Y2" s="77">
+      <c r="Y2" s="59">
         <f>IFERROR(VLOOKUP($A2&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="Z2" s="77">
+      <c r="Z2" s="59">
         <f>IFERROR(VLOOKUP($A2&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="AA2" s="77">
+      <c r="AA2" s="59">
         <f>IFERROR(VLOOKUP($A2&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="AB2" s="77">
+      <c r="AB2" s="59">
         <f>IFERROR(VLOOKUP($A2&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
@@ -15952,110 +15952,110 @@
       <c r="A3" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="77">
+      <c r="B3" s="59">
         <f>IFERROR(VLOOKUP($A3&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="C3" s="77">
-        <v>0</v>
-      </c>
-      <c r="D3" s="77">
+      <c r="C3" s="59">
+        <v>0</v>
+      </c>
+      <c r="D3" s="59">
         <f>IFERROR(VLOOKUP($A3&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>402</v>
       </c>
-      <c r="E3" s="77">
+      <c r="E3" s="59">
         <f>IFERROR(VLOOKUP($A3&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>939</v>
       </c>
-      <c r="F3" s="77">
+      <c r="F3" s="59">
         <f>IFERROR(VLOOKUP($A3&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="77">
+      <c r="G3" s="59">
         <f>IFERROR(VLOOKUP($A3&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="77">
+      <c r="H3" s="59">
         <f>IFERROR(VLOOKUP($A3&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="77">
+      <c r="I3" s="59">
         <f>IFERROR(VLOOKUP($A3&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="77">
+      <c r="J3" s="59">
         <f>IFERROR(VLOOKUP($A3&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2381.1646310156716</v>
       </c>
-      <c r="K3" s="77">
+      <c r="K3" s="59">
         <f>IFERROR(VLOOKUP($A3&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1624.0520311861933</v>
       </c>
-      <c r="L3" s="77">
+      <c r="L3" s="59">
         <f>IFERROR(VLOOKUP($A3&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>3012</v>
       </c>
-      <c r="M3" s="77">
+      <c r="M3" s="59">
         <f>IFERROR(VLOOKUP($A3&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1180.7201192492655</v>
       </c>
-      <c r="N3" s="77">
+      <c r="N3" s="59">
         <f>IFERROR(VLOOKUP($A3&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="77">
+      <c r="O3" s="59">
         <f>IFERROR(VLOOKUP($A3&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2350</v>
       </c>
-      <c r="P3" s="77">
+      <c r="P3" s="59">
         <f>IFERROR(VLOOKUP($A3&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="77">
+      <c r="Q3" s="59">
         <f>IFERROR(VLOOKUP($A3&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1316.9274847158442</v>
       </c>
-      <c r="R3" s="77">
+      <c r="R3" s="59">
         <f>IFERROR(VLOOKUP($A3&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="S3" s="77">
+      <c r="S3" s="59">
         <f>IFERROR(VLOOKUP($A3&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="T3" s="77">
+      <c r="T3" s="59">
         <f>IFERROR(VLOOKUP($A3&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="U3" s="77">
+      <c r="U3" s="59">
         <f>IFERROR(VLOOKUP($A3&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="V3" s="77">
+      <c r="V3" s="59">
         <f>IFERROR(VLOOKUP($A3&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="W3" s="77">
+      <c r="W3" s="59">
         <f>IFERROR(VLOOKUP($A3&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="X3" s="77">
+      <c r="X3" s="59">
         <f>IFERROR(VLOOKUP($A3&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="Y3" s="77">
+      <c r="Y3" s="59">
         <f>IFERROR(VLOOKUP($A3&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="Z3" s="77">
+      <c r="Z3" s="59">
         <f>IFERROR(VLOOKUP($A3&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="AA3" s="77">
+      <c r="AA3" s="59">
         <f>IFERROR(VLOOKUP($A3&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="AB3" s="77">
+      <c r="AB3" s="59">
         <f>IFERROR(VLOOKUP($A3&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
@@ -16064,110 +16064,110 @@
       <c r="A4" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="77">
+      <c r="B4" s="59">
         <f>IFERROR(VLOOKUP($A4&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="C4" s="77">
+      <c r="C4" s="59">
         <f>IFERROR(VLOOKUP($A4&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="D4" s="77">
-        <v>0</v>
-      </c>
-      <c r="E4" s="77">
+      <c r="D4" s="59">
+        <v>0</v>
+      </c>
+      <c r="E4" s="59">
         <f>IFERROR(VLOOKUP($A4&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>876</v>
       </c>
-      <c r="F4" s="77">
+      <c r="F4" s="59">
         <f>IFERROR(VLOOKUP($A4&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1881</v>
       </c>
-      <c r="G4" s="77">
+      <c r="G4" s="59">
         <f>IFERROR(VLOOKUP($A4&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1629</v>
       </c>
-      <c r="H4" s="77">
+      <c r="H4" s="59">
         <f>IFERROR(VLOOKUP($A4&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>3096</v>
       </c>
-      <c r="I4" s="77">
+      <c r="I4" s="59">
         <f>IFERROR(VLOOKUP($A4&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="77">
+      <c r="J4" s="59">
         <f>IFERROR(VLOOKUP($A4&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2652.6788346876824</v>
       </c>
-      <c r="K4" s="77">
+      <c r="K4" s="59">
         <f>IFERROR(VLOOKUP($A4&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1978.7331805981321</v>
       </c>
-      <c r="L4" s="77">
+      <c r="L4" s="59">
         <f>IFERROR(VLOOKUP($A4&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2643</v>
       </c>
-      <c r="M4" s="77">
+      <c r="M4" s="59">
         <f>IFERROR(VLOOKUP($A4&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1562.6163956646558</v>
       </c>
-      <c r="N4" s="77">
+      <c r="N4" s="59">
         <f>IFERROR(VLOOKUP($A4&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="O4" s="77">
+      <c r="O4" s="59">
         <f>IFERROR(VLOOKUP($A4&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2837</v>
       </c>
-      <c r="P4" s="77">
+      <c r="P4" s="59">
         <f>IFERROR(VLOOKUP($A4&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="77">
+      <c r="Q4" s="59">
         <f>IFERROR(VLOOKUP($A4&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1670.7866410765919</v>
       </c>
-      <c r="R4" s="77">
+      <c r="R4" s="59">
         <f>IFERROR(VLOOKUP($A4&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="S4" s="77">
+      <c r="S4" s="59">
         <f>IFERROR(VLOOKUP($A4&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="T4" s="77">
+      <c r="T4" s="59">
         <f>IFERROR(VLOOKUP($A4&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="U4" s="77">
+      <c r="U4" s="59">
         <f>IFERROR(VLOOKUP($A4&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="V4" s="77">
+      <c r="V4" s="59">
         <f>IFERROR(VLOOKUP($A4&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="W4" s="77">
+      <c r="W4" s="59">
         <f>IFERROR(VLOOKUP($A4&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="X4" s="77">
+      <c r="X4" s="59">
         <f>IFERROR(VLOOKUP($A4&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="Y4" s="77">
+      <c r="Y4" s="59">
         <f>IFERROR(VLOOKUP($A4&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="Z4" s="77">
+      <c r="Z4" s="59">
         <f>IFERROR(VLOOKUP($A4&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="AA4" s="77">
+      <c r="AA4" s="59">
         <f>IFERROR(VLOOKUP($A4&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="AB4" s="77">
+      <c r="AB4" s="59">
         <f>IFERROR(VLOOKUP($A4&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
@@ -16176,110 +16176,110 @@
       <c r="A5" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="77">
+      <c r="B5" s="59">
         <f>IFERROR(VLOOKUP($A5&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="C5" s="77">
+      <c r="C5" s="59">
         <f>IFERROR(VLOOKUP($A5&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="D5" s="77">
+      <c r="D5" s="59">
         <f>IFERROR(VLOOKUP($A5&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="E5" s="77">
-        <v>0</v>
-      </c>
-      <c r="F5" s="77">
+      <c r="E5" s="59">
+        <v>0</v>
+      </c>
+      <c r="F5" s="59">
         <f>IFERROR(VLOOKUP($A5&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="77">
+      <c r="G5" s="59">
         <f>IFERROR(VLOOKUP($A5&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="77">
+      <c r="H5" s="59">
         <f>IFERROR(VLOOKUP($A5&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="77">
+      <c r="I5" s="59">
         <f>IFERROR(VLOOKUP($A5&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="77">
+      <c r="J5" s="59">
         <f>IFERROR(VLOOKUP($A5&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2914.0487298602266</v>
       </c>
-      <c r="K5" s="77">
+      <c r="K5" s="59">
         <f>IFERROR(VLOOKUP($A5&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2036</v>
       </c>
-      <c r="L5" s="77">
+      <c r="L5" s="59">
         <f>IFERROR(VLOOKUP($A5&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="77">
+      <c r="M5" s="59">
         <f>IFERROR(VLOOKUP($A5&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1549.2530458256326</v>
       </c>
-      <c r="N5" s="77">
+      <c r="N5" s="59">
         <f>IFERROR(VLOOKUP($A5&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="77">
+      <c r="O5" s="59">
         <f>IFERROR(VLOOKUP($A5&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1980</v>
       </c>
-      <c r="P5" s="77">
+      <c r="P5" s="59">
         <f>IFERROR(VLOOKUP($A5&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="77">
+      <c r="Q5" s="59">
         <f>IFERROR(VLOOKUP($A5&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1753.7745008979916</v>
       </c>
-      <c r="R5" s="77">
+      <c r="R5" s="59">
         <f>IFERROR(VLOOKUP($A5&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="S5" s="77">
+      <c r="S5" s="59">
         <f>IFERROR(VLOOKUP($A5&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="T5" s="77">
+      <c r="T5" s="59">
         <f>IFERROR(VLOOKUP($A5&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="U5" s="77">
+      <c r="U5" s="59">
         <f>IFERROR(VLOOKUP($A5&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="V5" s="77">
+      <c r="V5" s="59">
         <f>IFERROR(VLOOKUP($A5&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="W5" s="77">
+      <c r="W5" s="59">
         <f>IFERROR(VLOOKUP($A5&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="X5" s="77">
+      <c r="X5" s="59">
         <f>IFERROR(VLOOKUP($A5&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="Y5" s="77">
+      <c r="Y5" s="59">
         <f>IFERROR(VLOOKUP($A5&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="Z5" s="77">
+      <c r="Z5" s="59">
         <f>IFERROR(VLOOKUP($A5&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="AA5" s="77">
+      <c r="AA5" s="59">
         <f>IFERROR(VLOOKUP($A5&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="AB5" s="77">
+      <c r="AB5" s="59">
         <f>IFERROR(VLOOKUP($A5&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
@@ -16288,110 +16288,110 @@
       <c r="A6" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="77">
+      <c r="B6" s="59">
         <f>IFERROR(VLOOKUP($A6&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="C6" s="77">
+      <c r="C6" s="59">
         <f>IFERROR(VLOOKUP($A6&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="D6" s="77">
+      <c r="D6" s="59">
         <f>IFERROR(VLOOKUP($A6&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="E6" s="77">
+      <c r="E6" s="59">
         <f>IFERROR(VLOOKUP($A6&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="F6" s="77">
-        <v>0</v>
-      </c>
-      <c r="G6" s="77">
+      <c r="F6" s="59">
+        <v>0</v>
+      </c>
+      <c r="G6" s="59">
         <f>IFERROR(VLOOKUP($A6&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1855</v>
       </c>
-      <c r="H6" s="77">
+      <c r="H6" s="59">
         <f>IFERROR(VLOOKUP($A6&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2530</v>
       </c>
-      <c r="I6" s="77">
+      <c r="I6" s="59">
         <f>IFERROR(VLOOKUP($A6&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="J6" s="77">
+      <c r="J6" s="59">
         <f>IFERROR(VLOOKUP($A6&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2156.5106074397131</v>
       </c>
-      <c r="K6" s="77">
+      <c r="K6" s="59">
         <f>IFERROR(VLOOKUP($A6&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1877.5308253128628</v>
       </c>
-      <c r="L6" s="77">
+      <c r="L6" s="59">
         <f>IFERROR(VLOOKUP($A6&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1890</v>
       </c>
-      <c r="M6" s="77">
+      <c r="M6" s="59">
         <f>IFERROR(VLOOKUP($A6&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1678.2148253426913</v>
       </c>
-      <c r="N6" s="77">
+      <c r="N6" s="59">
         <f>IFERROR(VLOOKUP($A6&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="77">
+      <c r="O6" s="59">
         <f>IFERROR(VLOOKUP($A6&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>3875</v>
       </c>
-      <c r="P6" s="77">
+      <c r="P6" s="59">
         <f>IFERROR(VLOOKUP($A6&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="77">
+      <c r="Q6" s="59">
         <f>IFERROR(VLOOKUP($A6&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1630.0248464363972</v>
       </c>
-      <c r="R6" s="77">
+      <c r="R6" s="59">
         <f>IFERROR(VLOOKUP($A6&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="S6" s="77">
+      <c r="S6" s="59">
         <f>IFERROR(VLOOKUP($A6&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="T6" s="77">
+      <c r="T6" s="59">
         <f>IFERROR(VLOOKUP($A6&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="U6" s="77">
+      <c r="U6" s="59">
         <f>IFERROR(VLOOKUP($A6&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="V6" s="77">
+      <c r="V6" s="59">
         <f>IFERROR(VLOOKUP($A6&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="W6" s="77">
+      <c r="W6" s="59">
         <f>IFERROR(VLOOKUP($A6&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="X6" s="77">
+      <c r="X6" s="59">
         <f>IFERROR(VLOOKUP($A6&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="77">
+      <c r="Y6" s="59">
         <f>IFERROR(VLOOKUP($A6&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="77">
+      <c r="Z6" s="59">
         <f>IFERROR(VLOOKUP($A6&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="77">
+      <c r="AA6" s="59">
         <f>IFERROR(VLOOKUP($A6&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="77">
+      <c r="AB6" s="59">
         <f>IFERROR(VLOOKUP($A6&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
@@ -16400,110 +16400,110 @@
       <c r="A7" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="77">
+      <c r="B7" s="59">
         <f>IFERROR(VLOOKUP($A7&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="C7" s="77">
+      <c r="C7" s="59">
         <f>IFERROR(VLOOKUP($A7&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="D7" s="77">
+      <c r="D7" s="59">
         <f>IFERROR(VLOOKUP($A7&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="E7" s="77">
+      <c r="E7" s="59">
         <f>IFERROR(VLOOKUP($A7&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="F7" s="77">
+      <c r="F7" s="59">
         <f>IFERROR(VLOOKUP($A7&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="G7" s="77">
-        <v>0</v>
-      </c>
-      <c r="H7" s="77">
+      <c r="G7" s="59">
+        <v>0</v>
+      </c>
+      <c r="H7" s="59">
         <f>IFERROR(VLOOKUP($A7&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1775</v>
       </c>
-      <c r="I7" s="77">
+      <c r="I7" s="59">
         <f>IFERROR(VLOOKUP($A7&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>5705</v>
       </c>
-      <c r="J7" s="77">
+      <c r="J7" s="59">
         <f>IFERROR(VLOOKUP($A7&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2617.7977385581185</v>
       </c>
-      <c r="K7" s="77">
+      <c r="K7" s="59">
         <f>IFERROR(VLOOKUP($A7&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2402.4622785800407</v>
       </c>
-      <c r="L7" s="77">
+      <c r="L7" s="59">
         <f>IFERROR(VLOOKUP($A7&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2942</v>
       </c>
-      <c r="M7" s="77">
+      <c r="M7" s="59">
         <f>IFERROR(VLOOKUP($A7&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2199.4362914165076</v>
       </c>
-      <c r="N7" s="77">
+      <c r="N7" s="59">
         <f>IFERROR(VLOOKUP($A7&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="77">
+      <c r="O7" s="59">
         <f>IFERROR(VLOOKUP($A7&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4370</v>
       </c>
-      <c r="P7" s="77">
+      <c r="P7" s="59">
         <f>IFERROR(VLOOKUP($A7&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="77">
+      <c r="Q7" s="59">
         <f>IFERROR(VLOOKUP($A7&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2156.5106074397131</v>
       </c>
-      <c r="R7" s="77">
+      <c r="R7" s="59">
         <f>IFERROR(VLOOKUP($A7&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="S7" s="77">
+      <c r="S7" s="59">
         <f>IFERROR(VLOOKUP($A7&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="T7" s="77">
+      <c r="T7" s="59">
         <f>IFERROR(VLOOKUP($A7&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="U7" s="77">
+      <c r="U7" s="59">
         <f>IFERROR(VLOOKUP($A7&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="V7" s="77">
+      <c r="V7" s="59">
         <f>IFERROR(VLOOKUP($A7&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="W7" s="77">
+      <c r="W7" s="59">
         <f>IFERROR(VLOOKUP($A7&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="X7" s="77">
+      <c r="X7" s="59">
         <f>IFERROR(VLOOKUP($A7&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="77">
+      <c r="Y7" s="59">
         <f>IFERROR(VLOOKUP($A7&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="Z7" s="77">
+      <c r="Z7" s="59">
         <f>IFERROR(VLOOKUP($A7&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="AA7" s="77">
+      <c r="AA7" s="59">
         <f>IFERROR(VLOOKUP($A7&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="AB7" s="77">
+      <c r="AB7" s="59">
         <f>IFERROR(VLOOKUP($A7&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
@@ -16512,110 +16512,110 @@
       <c r="A8" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="77">
+      <c r="B8" s="59">
         <f>IFERROR(VLOOKUP($A8&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="C8" s="77">
+      <c r="C8" s="59">
         <f>IFERROR(VLOOKUP($A8&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="D8" s="77">
+      <c r="D8" s="59">
         <f>IFERROR(VLOOKUP($A8&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="E8" s="77">
+      <c r="E8" s="59">
         <f>IFERROR(VLOOKUP($A8&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="F8" s="77">
+      <c r="F8" s="59">
         <f>IFERROR(VLOOKUP($A8&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="G8" s="77">
+      <c r="G8" s="59">
         <f>IFERROR(VLOOKUP($A8&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="H8" s="77">
-        <v>0</v>
-      </c>
-      <c r="I8" s="77">
+      <c r="H8" s="59">
+        <v>0</v>
+      </c>
+      <c r="I8" s="59">
         <f>IFERROR(VLOOKUP($A8&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4428</v>
       </c>
-      <c r="J8" s="77">
+      <c r="J8" s="59">
         <f>IFERROR(VLOOKUP($A8&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2876.0865772782295</v>
       </c>
-      <c r="K8" s="77">
+      <c r="K8" s="59">
         <f>IFERROR(VLOOKUP($A8&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2968.6027016089574</v>
       </c>
-      <c r="L8" s="77">
+      <c r="L8" s="59">
         <f>IFERROR(VLOOKUP($A8&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>3204</v>
       </c>
-      <c r="M8" s="77">
+      <c r="M8" s="59">
         <f>IFERROR(VLOOKUP($A8&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2893.2744425650326</v>
       </c>
-      <c r="N8" s="77">
+      <c r="N8" s="59">
         <f>IFERROR(VLOOKUP($A8&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="O8" s="77">
+      <c r="O8" s="59">
         <f>IFERROR(VLOOKUP($A8&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>5677</v>
       </c>
-      <c r="P8" s="77">
+      <c r="P8" s="59">
         <f>IFERROR(VLOOKUP($A8&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="77">
+      <c r="Q8" s="59">
         <f>IFERROR(VLOOKUP($A8&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2785.9829504144495</v>
       </c>
-      <c r="R8" s="77">
+      <c r="R8" s="59">
         <f>IFERROR(VLOOKUP($A8&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="S8" s="77">
+      <c r="S8" s="59">
         <f>IFERROR(VLOOKUP($A8&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="T8" s="77">
+      <c r="T8" s="59">
         <f>IFERROR(VLOOKUP($A8&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="U8" s="77">
+      <c r="U8" s="59">
         <f>IFERROR(VLOOKUP($A8&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="V8" s="77">
+      <c r="V8" s="59">
         <f>IFERROR(VLOOKUP($A8&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="W8" s="77">
+      <c r="W8" s="59">
         <f>IFERROR(VLOOKUP($A8&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="X8" s="77">
+      <c r="X8" s="59">
         <f>IFERROR(VLOOKUP($A8&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="Y8" s="77">
+      <c r="Y8" s="59">
         <f>IFERROR(VLOOKUP($A8&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="Z8" s="77">
+      <c r="Z8" s="59">
         <f>IFERROR(VLOOKUP($A8&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="AA8" s="77">
+      <c r="AA8" s="59">
         <f>IFERROR(VLOOKUP($A8&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="AB8" s="77">
+      <c r="AB8" s="59">
         <f>IFERROR(VLOOKUP($A8&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
@@ -16624,110 +16624,110 @@
       <c r="A9" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="77">
+      <c r="B9" s="59">
         <f>IFERROR(VLOOKUP($A9&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="C9" s="77">
+      <c r="C9" s="59">
         <f>IFERROR(VLOOKUP($A9&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="D9" s="77">
+      <c r="D9" s="59">
         <f>IFERROR(VLOOKUP($A9&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="E9" s="77">
+      <c r="E9" s="59">
         <f>IFERROR(VLOOKUP($A9&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="F9" s="77">
+      <c r="F9" s="59">
         <f>IFERROR(VLOOKUP($A9&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="G9" s="77">
+      <c r="G9" s="59">
         <f>IFERROR(VLOOKUP($A9&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="H9" s="77">
+      <c r="H9" s="59">
         <f>IFERROR(VLOOKUP($A9&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="I9" s="77">
-        <v>0</v>
-      </c>
-      <c r="J9" s="77">
+      <c r="I9" s="59">
+        <v>0</v>
+      </c>
+      <c r="J9" s="59">
         <f>IFERROR(VLOOKUP($A9&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2477.6061026724969</v>
       </c>
-      <c r="K9" s="77">
+      <c r="K9" s="59">
         <f>IFERROR(VLOOKUP($A9&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2811.9238965519676</v>
       </c>
-      <c r="L9" s="77">
+      <c r="L9" s="59">
         <f>IFERROR(VLOOKUP($A9&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>3545</v>
       </c>
-      <c r="M9" s="77">
+      <c r="M9" s="59">
         <f>IFERROR(VLOOKUP($A9&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2863.7271168880598</v>
       </c>
-      <c r="N9" s="77">
+      <c r="N9" s="59">
         <f>IFERROR(VLOOKUP($A9&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="O9" s="77">
+      <c r="O9" s="59">
         <f>IFERROR(VLOOKUP($A9&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="P9" s="77">
+      <c r="P9" s="59">
         <f>IFERROR(VLOOKUP($A9&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="77">
+      <c r="Q9" s="59">
         <f>IFERROR(VLOOKUP($A9&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2701.1384636852663</v>
       </c>
-      <c r="R9" s="77">
+      <c r="R9" s="59">
         <f>IFERROR(VLOOKUP($A9&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="S9" s="77">
+      <c r="S9" s="59">
         <f>IFERROR(VLOOKUP($A9&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="T9" s="77">
+      <c r="T9" s="59">
         <f>IFERROR(VLOOKUP($A9&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>8034</v>
       </c>
-      <c r="U9" s="77">
+      <c r="U9" s="59">
         <f>IFERROR(VLOOKUP($A9&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="V9" s="77">
+      <c r="V9" s="59">
         <f>IFERROR(VLOOKUP($A9&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="W9" s="77">
+      <c r="W9" s="59">
         <f>IFERROR(VLOOKUP($A9&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="X9" s="77">
+      <c r="X9" s="59">
         <f>IFERROR(VLOOKUP($A9&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4953</v>
       </c>
-      <c r="Y9" s="77">
+      <c r="Y9" s="59">
         <f>IFERROR(VLOOKUP($A9&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>9598</v>
       </c>
-      <c r="Z9" s="77">
+      <c r="Z9" s="59">
         <f>IFERROR(VLOOKUP($A9&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="AA9" s="77">
+      <c r="AA9" s="59">
         <f>IFERROR(VLOOKUP($A9&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="AB9" s="77">
+      <c r="AB9" s="59">
         <f>IFERROR(VLOOKUP($A9&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>8284</v>
       </c>
@@ -16736,110 +16736,110 @@
       <c r="A10" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="77">
+      <c r="B10" s="59">
         <f>IFERROR(VLOOKUP($A10&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="C10" s="77">
+      <c r="C10" s="59">
         <f>IFERROR(VLOOKUP($A10&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="D10" s="77">
+      <c r="D10" s="59">
         <f>IFERROR(VLOOKUP($A10&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="E10" s="77">
+      <c r="E10" s="59">
         <f>IFERROR(VLOOKUP($A10&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="F10" s="77">
+      <c r="F10" s="59">
         <f>IFERROR(VLOOKUP($A10&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="G10" s="77">
+      <c r="G10" s="59">
         <f>IFERROR(VLOOKUP($A10&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="H10" s="77">
+      <c r="H10" s="59">
         <f>IFERROR(VLOOKUP($A10&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="I10" s="77">
+      <c r="I10" s="59">
         <f>IFERROR(VLOOKUP($A10&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="J10" s="77">
-        <v>0</v>
-      </c>
-      <c r="K10" s="77">
+      <c r="J10" s="59">
+        <v>0</v>
+      </c>
+      <c r="K10" s="59">
         <f>IFERROR(VLOOKUP($A10&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>979.01991808134323</v>
       </c>
-      <c r="L10" s="77">
+      <c r="L10" s="59">
         <f>IFERROR(VLOOKUP($A10&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>989.3032901997243</v>
       </c>
-      <c r="M10" s="77">
+      <c r="M10" s="59">
         <f>IFERROR(VLOOKUP($A10&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1426.7785392274443</v>
       </c>
-      <c r="N10" s="77">
+      <c r="N10" s="59">
         <f>IFERROR(VLOOKUP($A10&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2150.8000836897882</v>
       </c>
-      <c r="O10" s="77">
+      <c r="O10" s="59">
         <f>IFERROR(VLOOKUP($A10&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2475.5025752359861</v>
       </c>
-      <c r="P10" s="77">
+      <c r="P10" s="59">
         <f>IFERROR(VLOOKUP($A10&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2145.372927954485</v>
       </c>
-      <c r="Q10" s="77">
+      <c r="Q10" s="59">
         <f>IFERROR(VLOOKUP($A10&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1187.7394495427018</v>
       </c>
-      <c r="R10" s="77">
+      <c r="R10" s="59">
         <f>IFERROR(VLOOKUP($A10&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4152.113317336125</v>
       </c>
-      <c r="S10" s="77">
+      <c r="S10" s="59">
         <f>IFERROR(VLOOKUP($A10&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2783.6043181458099</v>
       </c>
-      <c r="T10" s="77">
+      <c r="T10" s="59">
         <f>IFERROR(VLOOKUP($A10&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2868.8691151741309</v>
       </c>
-      <c r="U10" s="77">
+      <c r="U10" s="59">
         <f>IFERROR(VLOOKUP($A10&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2113.4407964265288</v>
       </c>
-      <c r="V10" s="77">
+      <c r="V10" s="59">
         <f>IFERROR(VLOOKUP($A10&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1427.7030503574615</v>
       </c>
-      <c r="W10" s="77">
+      <c r="W10" s="59">
         <f>IFERROR(VLOOKUP($A10&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1515.4491083503926</v>
       </c>
-      <c r="X10" s="77">
+      <c r="X10" s="59">
         <f>IFERROR(VLOOKUP($A10&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1712.3121794813001</v>
       </c>
-      <c r="Y10" s="77">
+      <c r="Y10" s="59">
         <f>IFERROR(VLOOKUP($A10&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>5474.2066091809138</v>
       </c>
-      <c r="Z10" s="77">
+      <c r="Z10" s="59">
         <f>IFERROR(VLOOKUP($A10&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>5193.7287183679509</v>
       </c>
-      <c r="AA10" s="77">
+      <c r="AA10" s="59">
         <f>IFERROR(VLOOKUP($A10&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4366.2730102456944</v>
       </c>
-      <c r="AB10" s="77">
+      <c r="AB10" s="59">
         <f>IFERROR(VLOOKUP($A10&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4170.4457795300495</v>
       </c>
@@ -16848,110 +16848,110 @@
       <c r="A11" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="77">
+      <c r="B11" s="59">
         <f>IFERROR(VLOOKUP($A11&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="C11" s="77">
+      <c r="C11" s="59">
         <f>IFERROR(VLOOKUP($A11&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="D11" s="77">
+      <c r="D11" s="59">
         <f>IFERROR(VLOOKUP($A11&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="E11" s="77">
+      <c r="E11" s="59">
         <f>IFERROR(VLOOKUP($A11&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="F11" s="77">
+      <c r="F11" s="59">
         <f>IFERROR(VLOOKUP($A11&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="G11" s="77">
+      <c r="G11" s="59">
         <f>IFERROR(VLOOKUP($A11&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="H11" s="77">
+      <c r="H11" s="59">
         <f>IFERROR(VLOOKUP($A11&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="I11" s="77">
+      <c r="I11" s="59">
         <f>IFERROR(VLOOKUP($A11&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="J11" s="77">
+      <c r="J11" s="59">
         <f>IFERROR(VLOOKUP($A11&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="K11" s="77">
-        <v>0</v>
-      </c>
-      <c r="L11" s="77">
+      <c r="K11" s="59">
+        <v>0</v>
+      </c>
+      <c r="L11" s="59">
         <f>IFERROR(VLOOKUP($A11&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1005.3899740896564</v>
       </c>
-      <c r="M11" s="77">
+      <c r="M11" s="59">
         <f>IFERROR(VLOOKUP($A11&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>487.80426402400377</v>
       </c>
-      <c r="N11" s="77">
+      <c r="N11" s="59">
         <f>IFERROR(VLOOKUP($A11&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1178.7268555522098</v>
       </c>
-      <c r="O11" s="77">
+      <c r="O11" s="59">
         <f>IFERROR(VLOOKUP($A11&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1527.6128436223623</v>
       </c>
-      <c r="P11" s="77">
+      <c r="P11" s="59">
         <f>IFERROR(VLOOKUP($A11&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1176.6091109625149</v>
       </c>
-      <c r="Q11" s="77">
+      <c r="Q11" s="59">
         <f>IFERROR(VLOOKUP($A11&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>308.25476476447204</v>
       </c>
-      <c r="R11" s="77">
+      <c r="R11" s="59">
         <f>IFERROR(VLOOKUP($A11&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4691.0183329422198</v>
       </c>
-      <c r="S11" s="77">
+      <c r="S11" s="59">
         <f>IFERROR(VLOOKUP($A11&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>3660.2870106044961</v>
       </c>
-      <c r="T11" s="77">
+      <c r="T11" s="59">
         <f>IFERROR(VLOOKUP($A11&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>3827.0262606885781</v>
       </c>
-      <c r="U11" s="77">
+      <c r="U11" s="59">
         <f>IFERROR(VLOOKUP($A11&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2935.0257239077141</v>
       </c>
-      <c r="V11" s="77">
+      <c r="V11" s="59">
         <f>IFERROR(VLOOKUP($A11&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2152.1821484251745</v>
       </c>
-      <c r="W11" s="77">
+      <c r="W11" s="59">
         <f>IFERROR(VLOOKUP($A11&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2491.705038723484</v>
       </c>
-      <c r="X11" s="77">
+      <c r="X11" s="59">
         <f>IFERROR(VLOOKUP($A11&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2679.3934014996753</v>
       </c>
-      <c r="Y11" s="77">
+      <c r="Y11" s="59">
         <f>IFERROR(VLOOKUP($A11&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>6381.2376542485863</v>
       </c>
-      <c r="Z11" s="77">
+      <c r="Z11" s="59">
         <f>IFERROR(VLOOKUP($A11&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>6055.0998340242086</v>
       </c>
-      <c r="AA11" s="77">
+      <c r="AA11" s="59">
         <f>IFERROR(VLOOKUP($A11&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>5272.0716990572118</v>
       </c>
-      <c r="AB11" s="77">
+      <c r="AB11" s="59">
         <f>IFERROR(VLOOKUP($A11&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>5094.0547700235811</v>
       </c>
@@ -16960,110 +16960,110 @@
       <c r="A12" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="77">
+      <c r="B12" s="59">
         <f>IFERROR(VLOOKUP($A12&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="C12" s="77">
+      <c r="C12" s="59">
         <f>IFERROR(VLOOKUP($A12&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="D12" s="77">
+      <c r="D12" s="59">
         <f>IFERROR(VLOOKUP($A12&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="E12" s="77">
+      <c r="E12" s="59">
         <f>IFERROR(VLOOKUP($A12&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="F12" s="77">
+      <c r="F12" s="59">
         <f>IFERROR(VLOOKUP($A12&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="G12" s="77">
+      <c r="G12" s="59">
         <f>IFERROR(VLOOKUP($A12&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="H12" s="77">
+      <c r="H12" s="59">
         <f>IFERROR(VLOOKUP($A12&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="I12" s="77">
+      <c r="I12" s="59">
         <f>IFERROR(VLOOKUP($A12&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="J12" s="77">
+      <c r="J12" s="59">
         <f>IFERROR(VLOOKUP($A12&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="K12" s="77">
+      <c r="K12" s="59">
         <f>IFERROR(VLOOKUP($A12&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="L12" s="77">
-        <v>0</v>
-      </c>
-      <c r="M12" s="77">
+      <c r="L12" s="59">
+        <v>0</v>
+      </c>
+      <c r="M12" s="59">
         <f>IFERROR(VLOOKUP($A12&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1130.3848902033324</v>
       </c>
-      <c r="N12" s="77">
+      <c r="N12" s="59">
         <f>IFERROR(VLOOKUP($A12&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4799</v>
       </c>
-      <c r="O12" s="77">
+      <c r="O12" s="59">
         <f>IFERROR(VLOOKUP($A12&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4334</v>
       </c>
-      <c r="P12" s="77">
+      <c r="P12" s="59">
         <f>IFERROR(VLOOKUP($A12&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4804</v>
       </c>
-      <c r="Q12" s="77">
+      <c r="Q12" s="59">
         <f>IFERROR(VLOOKUP($A12&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>926.6412466537414</v>
       </c>
-      <c r="R12" s="77">
+      <c r="R12" s="59">
         <f>IFERROR(VLOOKUP($A12&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="S12" s="77">
+      <c r="S12" s="59">
         <f>IFERROR(VLOOKUP($A12&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="T12" s="77">
+      <c r="T12" s="59">
         <f>IFERROR(VLOOKUP($A12&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="U12" s="77">
+      <c r="U12" s="59">
         <f>IFERROR(VLOOKUP($A12&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="V12" s="77">
+      <c r="V12" s="59">
         <f>IFERROR(VLOOKUP($A12&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="W12" s="77">
+      <c r="W12" s="59">
         <f>IFERROR(VLOOKUP($A12&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="X12" s="77">
+      <c r="X12" s="59">
         <f>IFERROR(VLOOKUP($A12&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="Y12" s="77">
+      <c r="Y12" s="59">
         <f>IFERROR(VLOOKUP($A12&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="Z12" s="77">
+      <c r="Z12" s="59">
         <f>IFERROR(VLOOKUP($A12&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="AA12" s="77">
+      <c r="AA12" s="59">
         <f>IFERROR(VLOOKUP($A12&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="AB12" s="77">
+      <c r="AB12" s="59">
         <f>IFERROR(VLOOKUP($A12&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
@@ -17072,110 +17072,110 @@
       <c r="A13" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="77">
+      <c r="B13" s="59">
         <f>IFERROR(VLOOKUP($A13&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="C13" s="77">
+      <c r="C13" s="59">
         <f>IFERROR(VLOOKUP($A13&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="D13" s="77">
+      <c r="D13" s="59">
         <f>IFERROR(VLOOKUP($A13&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="E13" s="77">
+      <c r="E13" s="59">
         <f>IFERROR(VLOOKUP($A13&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="F13" s="77">
+      <c r="F13" s="59">
         <f>IFERROR(VLOOKUP($A13&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="G13" s="77">
+      <c r="G13" s="59">
         <f>IFERROR(VLOOKUP($A13&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="H13" s="77">
+      <c r="H13" s="59">
         <f>IFERROR(VLOOKUP($A13&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="I13" s="77">
+      <c r="I13" s="59">
         <f>IFERROR(VLOOKUP($A13&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="J13" s="77">
+      <c r="J13" s="59">
         <f>IFERROR(VLOOKUP($A13&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="K13" s="77">
+      <c r="K13" s="59">
         <f>IFERROR(VLOOKUP($A13&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="L13" s="77">
+      <c r="L13" s="59">
         <f>IFERROR(VLOOKUP($A13&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="M13" s="77">
-        <v>0</v>
-      </c>
-      <c r="N13" s="77">
+      <c r="M13" s="59">
+        <v>0</v>
+      </c>
+      <c r="N13" s="59">
         <f>IFERROR(VLOOKUP($A13&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>847.41961270671572</v>
       </c>
-      <c r="O13" s="77">
+      <c r="O13" s="59">
         <f>IFERROR(VLOOKUP($A13&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1247.4165302736692</v>
       </c>
-      <c r="P13" s="77">
+      <c r="P13" s="59">
         <f>IFERROR(VLOOKUP($A13&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>860.08953022345293</v>
       </c>
-      <c r="Q13" s="77">
+      <c r="Q13" s="59">
         <f>IFERROR(VLOOKUP($A13&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>246.67792767088019</v>
       </c>
-      <c r="R13" s="77">
+      <c r="R13" s="59">
         <f>IFERROR(VLOOKUP($A13&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>5143.775461662377</v>
       </c>
-      <c r="S13" s="77">
+      <c r="S13" s="59">
         <f>IFERROR(VLOOKUP($A13&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4145.9387356785674</v>
       </c>
-      <c r="T13" s="77">
+      <c r="T13" s="59">
         <f>IFERROR(VLOOKUP($A13&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4292.9408335079579</v>
       </c>
-      <c r="U13" s="77">
+      <c r="U13" s="59">
         <f>IFERROR(VLOOKUP($A13&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>3422.7376469720843</v>
       </c>
-      <c r="V13" s="77">
+      <c r="V13" s="59">
         <f>IFERROR(VLOOKUP($A13&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2639</v>
       </c>
-      <c r="W13" s="77">
+      <c r="W13" s="59">
         <f>IFERROR(VLOOKUP($A13&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2917.3523955806231</v>
       </c>
-      <c r="X13" s="77">
+      <c r="X13" s="59">
         <f>IFERROR(VLOOKUP($A13&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>3138.6939959161359</v>
       </c>
-      <c r="Y13" s="77">
+      <c r="Y13" s="59">
         <f>IFERROR(VLOOKUP($A13&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>6864.4916053557818</v>
       </c>
-      <c r="Z13" s="77">
+      <c r="Z13" s="59">
         <f>IFERROR(VLOOKUP($A13&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>6542.4999044707674</v>
       </c>
-      <c r="AA13" s="77">
+      <c r="AA13" s="59">
         <f>IFERROR(VLOOKUP($A13&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>5755.1629863975186</v>
       </c>
-      <c r="AB13" s="77">
+      <c r="AB13" s="59">
         <f>IFERROR(VLOOKUP($A13&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>5573.5773969686652</v>
       </c>
@@ -17184,110 +17184,110 @@
       <c r="A14" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="77">
+      <c r="B14" s="59">
         <f>IFERROR(VLOOKUP($A14&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="C14" s="77">
+      <c r="C14" s="59">
         <f>IFERROR(VLOOKUP($A14&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="D14" s="77">
+      <c r="D14" s="59">
         <f>IFERROR(VLOOKUP($A14&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="E14" s="77">
+      <c r="E14" s="59">
         <f>IFERROR(VLOOKUP($A14&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="F14" s="77">
+      <c r="F14" s="59">
         <f>IFERROR(VLOOKUP($A14&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="G14" s="77">
+      <c r="G14" s="59">
         <f>IFERROR(VLOOKUP($A14&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="H14" s="77">
+      <c r="H14" s="59">
         <f>IFERROR(VLOOKUP($A14&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="I14" s="77">
+      <c r="I14" s="59">
         <f>IFERROR(VLOOKUP($A14&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="J14" s="77">
+      <c r="J14" s="59">
         <f>IFERROR(VLOOKUP($A14&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="K14" s="77">
+      <c r="K14" s="59">
         <f>IFERROR(VLOOKUP($A14&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="L14" s="77">
+      <c r="L14" s="59">
         <f>IFERROR(VLOOKUP($A14&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="M14" s="77">
+      <c r="M14" s="59">
         <f>IFERROR(VLOOKUP($A14&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="N14" s="77">
-        <v>0</v>
-      </c>
-      <c r="O14" s="77">
+      <c r="N14" s="59">
+        <v>0</v>
+      </c>
+      <c r="O14" s="59">
         <f>IFERROR(VLOOKUP($A14&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>464</v>
       </c>
-      <c r="P14" s="77">
+      <c r="P14" s="59">
         <f>IFERROR(VLOOKUP($A14&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>41.012193308819754</v>
       </c>
-      <c r="Q14" s="77">
+      <c r="Q14" s="59">
         <f>IFERROR(VLOOKUP($A14&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1074.2113386107969</v>
       </c>
-      <c r="R14" s="77">
+      <c r="R14" s="59">
         <f>IFERROR(VLOOKUP($A14&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="S14" s="77">
+      <c r="S14" s="59">
         <f>IFERROR(VLOOKUP($A14&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="T14" s="77">
+      <c r="T14" s="59">
         <f>IFERROR(VLOOKUP($A14&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="U14" s="77">
+      <c r="U14" s="59">
         <f>IFERROR(VLOOKUP($A14&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="V14" s="77">
+      <c r="V14" s="59">
         <f>IFERROR(VLOOKUP($A14&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="W14" s="77">
+      <c r="W14" s="59">
         <f>IFERROR(VLOOKUP($A14&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="X14" s="77">
+      <c r="X14" s="59">
         <f>IFERROR(VLOOKUP($A14&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="Y14" s="77">
+      <c r="Y14" s="59">
         <f>IFERROR(VLOOKUP($A14&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="Z14" s="77">
+      <c r="Z14" s="59">
         <f>IFERROR(VLOOKUP($A14&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="AA14" s="77">
+      <c r="AA14" s="59">
         <f>IFERROR(VLOOKUP($A14&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="AB14" s="77">
+      <c r="AB14" s="59">
         <f>IFERROR(VLOOKUP($A14&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
@@ -17296,110 +17296,110 @@
       <c r="A15" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="77">
+      <c r="B15" s="59">
         <f>IFERROR(VLOOKUP($A15&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="C15" s="77">
+      <c r="C15" s="59">
         <f>IFERROR(VLOOKUP($A15&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="D15" s="77">
+      <c r="D15" s="59">
         <f>IFERROR(VLOOKUP($A15&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="E15" s="77">
+      <c r="E15" s="59">
         <f>IFERROR(VLOOKUP($A15&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="F15" s="77">
+      <c r="F15" s="59">
         <f>IFERROR(VLOOKUP($A15&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="G15" s="77">
+      <c r="G15" s="59">
         <f>IFERROR(VLOOKUP($A15&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="H15" s="77">
+      <c r="H15" s="59">
         <f>IFERROR(VLOOKUP($A15&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="I15" s="77">
+      <c r="I15" s="59">
         <f>IFERROR(VLOOKUP($A15&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="J15" s="77">
+      <c r="J15" s="59">
         <f>IFERROR(VLOOKUP($A15&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="K15" s="77">
+      <c r="K15" s="59">
         <f>IFERROR(VLOOKUP($A15&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="L15" s="77">
+      <c r="L15" s="59">
         <f>IFERROR(VLOOKUP($A15&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="M15" s="77">
+      <c r="M15" s="59">
         <f>IFERROR(VLOOKUP($A15&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="N15" s="77">
+      <c r="N15" s="59">
         <f>IFERROR(VLOOKUP($A15&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="O15" s="77">
-        <v>0</v>
-      </c>
-      <c r="P15" s="77">
+      <c r="O15" s="59">
+        <v>0</v>
+      </c>
+      <c r="P15" s="59">
         <f>IFERROR(VLOOKUP($A15&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>390.32550518765743</v>
       </c>
-      <c r="Q15" s="77">
+      <c r="Q15" s="59">
         <f>IFERROR(VLOOKUP($A15&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1463.3529991085541</v>
       </c>
-      <c r="R15" s="77">
+      <c r="R15" s="59">
         <f>IFERROR(VLOOKUP($A15&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="S15" s="77">
+      <c r="S15" s="59">
         <f>IFERROR(VLOOKUP($A15&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="T15" s="77">
+      <c r="T15" s="59">
         <f>IFERROR(VLOOKUP($A15&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="U15" s="77">
+      <c r="U15" s="59">
         <f>IFERROR(VLOOKUP($A15&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="V15" s="77">
+      <c r="V15" s="59">
         <f>IFERROR(VLOOKUP($A15&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="W15" s="77">
+      <c r="W15" s="59">
         <f>IFERROR(VLOOKUP($A15&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="X15" s="77">
+      <c r="X15" s="59">
         <f>IFERROR(VLOOKUP($A15&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="Y15" s="77">
+      <c r="Y15" s="59">
         <f>IFERROR(VLOOKUP($A15&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="Z15" s="77">
+      <c r="Z15" s="59">
         <f>IFERROR(VLOOKUP($A15&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="AA15" s="77">
+      <c r="AA15" s="59">
         <f>IFERROR(VLOOKUP($A15&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="AB15" s="77">
+      <c r="AB15" s="59">
         <f>IFERROR(VLOOKUP($A15&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
@@ -17408,110 +17408,110 @@
       <c r="A16" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="77">
+      <c r="B16" s="59">
         <f>IFERROR(VLOOKUP($A16&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="C16" s="77">
+      <c r="C16" s="59">
         <f>IFERROR(VLOOKUP($A16&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="D16" s="77">
+      <c r="D16" s="59">
         <f>IFERROR(VLOOKUP($A16&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="E16" s="77">
+      <c r="E16" s="59">
         <f>IFERROR(VLOOKUP($A16&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="F16" s="77">
+      <c r="F16" s="59">
         <f>IFERROR(VLOOKUP($A16&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="G16" s="77">
+      <c r="G16" s="59">
         <f>IFERROR(VLOOKUP($A16&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="H16" s="77">
+      <c r="H16" s="59">
         <f>IFERROR(VLOOKUP($A16&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="I16" s="77">
+      <c r="I16" s="59">
         <f>IFERROR(VLOOKUP($A16&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="J16" s="77">
+      <c r="J16" s="59">
         <f>IFERROR(VLOOKUP($A16&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="K16" s="77">
+      <c r="K16" s="59">
         <f>IFERROR(VLOOKUP($A16&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="L16" s="77">
+      <c r="L16" s="59">
         <f>IFERROR(VLOOKUP($A16&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="M16" s="77">
+      <c r="M16" s="59">
         <f>IFERROR(VLOOKUP($A16&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="N16" s="77">
+      <c r="N16" s="59">
         <f>IFERROR(VLOOKUP($A16&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="O16" s="77">
+      <c r="O16" s="59">
         <f>IFERROR(VLOOKUP($A16&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="P16" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="77">
+      <c r="P16" s="59">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="59">
         <f>IFERROR(VLOOKUP($A16&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="R16" s="77">
+      <c r="R16" s="59">
         <f>IFERROR(VLOOKUP($A16&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="S16" s="77">
+      <c r="S16" s="59">
         <f>IFERROR(VLOOKUP($A16&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="T16" s="77">
+      <c r="T16" s="59">
         <f>IFERROR(VLOOKUP($A16&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="U16" s="77">
+      <c r="U16" s="59">
         <f>IFERROR(VLOOKUP($A16&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="V16" s="77">
+      <c r="V16" s="59">
         <f>IFERROR(VLOOKUP($A16&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="W16" s="77">
+      <c r="W16" s="59">
         <f>IFERROR(VLOOKUP($A16&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="X16" s="77">
+      <c r="X16" s="59">
         <f>IFERROR(VLOOKUP($A16&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="Y16" s="77">
+      <c r="Y16" s="59">
         <f>IFERROR(VLOOKUP($A16&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="Z16" s="77">
+      <c r="Z16" s="59">
         <f>IFERROR(VLOOKUP($A16&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="AA16" s="77">
+      <c r="AA16" s="59">
         <f>IFERROR(VLOOKUP($A16&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="AB16" s="77">
+      <c r="AB16" s="59">
         <f>IFERROR(VLOOKUP($A16&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
@@ -17520,110 +17520,110 @@
       <c r="A17" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="77">
+      <c r="B17" s="59">
         <f>IFERROR(VLOOKUP($A17&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="C17" s="77">
+      <c r="C17" s="59">
         <f>IFERROR(VLOOKUP($A17&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="D17" s="77">
+      <c r="D17" s="59">
         <f>IFERROR(VLOOKUP($A17&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="E17" s="77">
+      <c r="E17" s="59">
         <f>IFERROR(VLOOKUP($A17&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="F17" s="77">
+      <c r="F17" s="59">
         <f>IFERROR(VLOOKUP($A17&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="G17" s="77">
+      <c r="G17" s="59">
         <f>IFERROR(VLOOKUP($A17&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="H17" s="77">
+      <c r="H17" s="59">
         <f>IFERROR(VLOOKUP($A17&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="I17" s="77">
+      <c r="I17" s="59">
         <f>IFERROR(VLOOKUP($A17&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="J17" s="77">
+      <c r="J17" s="59">
         <f>IFERROR(VLOOKUP($A17&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="K17" s="77">
+      <c r="K17" s="59">
         <f>IFERROR(VLOOKUP($A17&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="L17" s="77">
+      <c r="L17" s="59">
         <f>IFERROR(VLOOKUP($A17&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="M17" s="77">
+      <c r="M17" s="59">
         <f>IFERROR(VLOOKUP($A17&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="N17" s="77">
+      <c r="N17" s="59">
         <f>IFERROR(VLOOKUP($A17&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="O17" s="77">
+      <c r="O17" s="59">
         <f>IFERROR(VLOOKUP($A17&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="P17" s="77">
+      <c r="P17" s="59">
         <f>IFERROR(VLOOKUP($A17&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="Q17" s="77">
-        <v>0</v>
-      </c>
-      <c r="R17" s="77">
+      <c r="Q17" s="59">
+        <v>0</v>
+      </c>
+      <c r="R17" s="59">
         <f>IFERROR(VLOOKUP($A17&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4999.04790935234</v>
       </c>
-      <c r="S17" s="77">
+      <c r="S17" s="59">
         <f>IFERROR(VLOOKUP($A17&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>3927.9106405314265</v>
       </c>
-      <c r="T17" s="77">
+      <c r="T17" s="59">
         <f>IFERROR(VLOOKUP($A17&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4056.2654005870968</v>
       </c>
-      <c r="U17" s="77">
+      <c r="U17" s="59">
         <f>IFERROR(VLOOKUP($A17&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>3214.0580268563913</v>
       </c>
-      <c r="V17" s="77">
+      <c r="V17" s="59">
         <f>IFERROR(VLOOKUP($A17&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2442.1902055327305</v>
       </c>
-      <c r="W17" s="77">
+      <c r="W17" s="59">
         <f>IFERROR(VLOOKUP($A17&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2671.840002694772</v>
       </c>
-      <c r="X17" s="77">
+      <c r="X17" s="59">
         <f>IFERROR(VLOOKUP($A17&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2899.974137815715</v>
       </c>
-      <c r="Y17" s="77">
+      <c r="Y17" s="59">
         <f>IFERROR(VLOOKUP($A17&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>6640.9777141622753</v>
       </c>
-      <c r="Z17" s="77">
+      <c r="Z17" s="59">
         <f>IFERROR(VLOOKUP($A17&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>6329.839255462969</v>
       </c>
-      <c r="AA17" s="77">
+      <c r="AA17" s="59">
         <f>IFERROR(VLOOKUP($A17&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>5531.6642161288137</v>
       </c>
-      <c r="AB17" s="77">
+      <c r="AB17" s="59">
         <f>IFERROR(VLOOKUP($A17&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>5345.7221214724586</v>
       </c>
@@ -17632,110 +17632,110 @@
       <c r="A18" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="77">
+      <c r="B18" s="59">
         <f>IFERROR(VLOOKUP($A18&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="C18" s="77">
+      <c r="C18" s="59">
         <f>IFERROR(VLOOKUP($A18&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="D18" s="77">
+      <c r="D18" s="59">
         <f>IFERROR(VLOOKUP($A18&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="E18" s="77">
+      <c r="E18" s="59">
         <f>IFERROR(VLOOKUP($A18&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="F18" s="77">
+      <c r="F18" s="59">
         <f>IFERROR(VLOOKUP($A18&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="G18" s="77">
+      <c r="G18" s="59">
         <f>IFERROR(VLOOKUP($A18&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="H18" s="77">
+      <c r="H18" s="59">
         <f>IFERROR(VLOOKUP($A18&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="I18" s="77">
+      <c r="I18" s="59">
         <f>IFERROR(VLOOKUP($A18&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="J18" s="77">
+      <c r="J18" s="59">
         <f>IFERROR(VLOOKUP($A18&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="K18" s="77">
+      <c r="K18" s="59">
         <f>IFERROR(VLOOKUP($A18&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="L18" s="77">
+      <c r="L18" s="59">
         <f>IFERROR(VLOOKUP($A18&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="M18" s="77">
+      <c r="M18" s="59">
         <f>IFERROR(VLOOKUP($A18&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="N18" s="77">
+      <c r="N18" s="59">
         <f>IFERROR(VLOOKUP($A18&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="O18" s="77">
+      <c r="O18" s="59">
         <f>IFERROR(VLOOKUP($A18&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="P18" s="77">
+      <c r="P18" s="59">
         <f>IFERROR(VLOOKUP($A18&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="Q18" s="77">
+      <c r="Q18" s="59">
         <f>IFERROR(VLOOKUP($A18&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="R18" s="77">
-        <v>0</v>
-      </c>
-      <c r="S18" s="77">
+      <c r="R18" s="59">
+        <v>0</v>
+      </c>
+      <c r="S18" s="59">
         <f>IFERROR(VLOOKUP($A18&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>3613</v>
       </c>
-      <c r="T18" s="77">
+      <c r="T18" s="59">
         <f>IFERROR(VLOOKUP($A18&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>5131</v>
       </c>
-      <c r="U18" s="77">
+      <c r="U18" s="59">
         <f>IFERROR(VLOOKUP($A18&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2925</v>
       </c>
-      <c r="V18" s="77">
+      <c r="V18" s="59">
         <f>IFERROR(VLOOKUP($A18&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>3223</v>
       </c>
-      <c r="W18" s="77">
+      <c r="W18" s="59">
         <f>IFERROR(VLOOKUP($A18&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4807</v>
       </c>
-      <c r="X18" s="77">
+      <c r="X18" s="59">
         <f>IFERROR(VLOOKUP($A18&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4417</v>
       </c>
-      <c r="Y18" s="77">
+      <c r="Y18" s="59">
         <f>IFERROR(VLOOKUP($A18&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="Z18" s="77">
+      <c r="Z18" s="59">
         <f>IFERROR(VLOOKUP($A18&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>3884</v>
       </c>
-      <c r="AA18" s="77">
+      <c r="AA18" s="59">
         <f>IFERROR(VLOOKUP($A18&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="AB18" s="77">
+      <c r="AB18" s="59">
         <f>IFERROR(VLOOKUP($A18&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4452</v>
       </c>
@@ -17744,110 +17744,110 @@
       <c r="A19" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="77">
+      <c r="B19" s="59">
         <f>IFERROR(VLOOKUP($A19&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="C19" s="77">
+      <c r="C19" s="59">
         <f>IFERROR(VLOOKUP($A19&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="D19" s="77">
+      <c r="D19" s="59">
         <f>IFERROR(VLOOKUP($A19&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="E19" s="77">
+      <c r="E19" s="59">
         <f>IFERROR(VLOOKUP($A19&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="F19" s="77">
+      <c r="F19" s="59">
         <f>IFERROR(VLOOKUP($A19&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="G19" s="77">
+      <c r="G19" s="59">
         <f>IFERROR(VLOOKUP($A19&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="H19" s="77">
+      <c r="H19" s="59">
         <f>IFERROR(VLOOKUP($A19&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="I19" s="77">
+      <c r="I19" s="59">
         <f>IFERROR(VLOOKUP($A19&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="J19" s="77">
+      <c r="J19" s="59">
         <f>IFERROR(VLOOKUP($A19&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="K19" s="77">
+      <c r="K19" s="59">
         <f>IFERROR(VLOOKUP($A19&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="L19" s="77">
+      <c r="L19" s="59">
         <f>IFERROR(VLOOKUP($A19&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="M19" s="77">
+      <c r="M19" s="59">
         <f>IFERROR(VLOOKUP($A19&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="N19" s="77">
+      <c r="N19" s="59">
         <f>IFERROR(VLOOKUP($A19&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="O19" s="77">
+      <c r="O19" s="59">
         <f>IFERROR(VLOOKUP($A19&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="P19" s="77">
+      <c r="P19" s="59">
         <f>IFERROR(VLOOKUP($A19&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="Q19" s="77">
+      <c r="Q19" s="59">
         <f>IFERROR(VLOOKUP($A19&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="R19" s="77">
+      <c r="R19" s="59">
         <f>IFERROR(VLOOKUP($A19&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="S19" s="77">
-        <v>0</v>
-      </c>
-      <c r="T19" s="77">
+      <c r="S19" s="59">
+        <v>0</v>
+      </c>
+      <c r="T19" s="59">
         <f>IFERROR(VLOOKUP($A19&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2222</v>
       </c>
-      <c r="U19" s="77">
+      <c r="U19" s="59">
         <f>IFERROR(VLOOKUP($A19&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2334</v>
       </c>
-      <c r="V19" s="77">
+      <c r="V19" s="59">
         <f>IFERROR(VLOOKUP($A19&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2861</v>
       </c>
-      <c r="W19" s="77">
+      <c r="W19" s="59">
         <f>IFERROR(VLOOKUP($A19&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2976</v>
       </c>
-      <c r="X19" s="77">
+      <c r="X19" s="59">
         <f>IFERROR(VLOOKUP($A19&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2576</v>
       </c>
-      <c r="Y19" s="77">
+      <c r="Y19" s="59">
         <f>IFERROR(VLOOKUP($A19&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="Z19" s="77">
+      <c r="Z19" s="59">
         <f>IFERROR(VLOOKUP($A19&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4985</v>
       </c>
-      <c r="AA19" s="77">
+      <c r="AA19" s="59">
         <f>IFERROR(VLOOKUP($A19&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="AB19" s="77">
+      <c r="AB19" s="59">
         <f>IFERROR(VLOOKUP($A19&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2001</v>
       </c>
@@ -17856,110 +17856,110 @@
       <c r="A20" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="77">
+      <c r="B20" s="59">
         <f>IFERROR(VLOOKUP($A20&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="C20" s="77">
+      <c r="C20" s="59">
         <f>IFERROR(VLOOKUP($A20&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="D20" s="77">
+      <c r="D20" s="59">
         <f>IFERROR(VLOOKUP($A20&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="E20" s="77">
+      <c r="E20" s="59">
         <f>IFERROR(VLOOKUP($A20&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="F20" s="77">
+      <c r="F20" s="59">
         <f>IFERROR(VLOOKUP($A20&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="G20" s="77">
+      <c r="G20" s="59">
         <f>IFERROR(VLOOKUP($A20&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="H20" s="77">
+      <c r="H20" s="59">
         <f>IFERROR(VLOOKUP($A20&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="I20" s="77">
+      <c r="I20" s="59">
         <f>IFERROR(VLOOKUP($A20&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="J20" s="77">
+      <c r="J20" s="59">
         <f>IFERROR(VLOOKUP($A20&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="K20" s="77">
+      <c r="K20" s="59">
         <f>IFERROR(VLOOKUP($A20&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="L20" s="77">
+      <c r="L20" s="59">
         <f>IFERROR(VLOOKUP($A20&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="M20" s="77">
+      <c r="M20" s="59">
         <f>IFERROR(VLOOKUP($A20&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="N20" s="77">
+      <c r="N20" s="59">
         <f>IFERROR(VLOOKUP($A20&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="O20" s="77">
+      <c r="O20" s="59">
         <f>IFERROR(VLOOKUP($A20&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="P20" s="77">
+      <c r="P20" s="59">
         <f>IFERROR(VLOOKUP($A20&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="Q20" s="77">
+      <c r="Q20" s="59">
         <f>IFERROR(VLOOKUP($A20&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="R20" s="77">
+      <c r="R20" s="59">
         <f>IFERROR(VLOOKUP($A20&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="S20" s="77">
+      <c r="S20" s="59">
         <f>IFERROR(VLOOKUP($A20&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="T20" s="77">
-        <v>0</v>
-      </c>
-      <c r="U20" s="77">
+      <c r="T20" s="59">
+        <v>0</v>
+      </c>
+      <c r="U20" s="59">
         <f>IFERROR(VLOOKUP($A20&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>3908</v>
       </c>
-      <c r="V20" s="77">
+      <c r="V20" s="59">
         <f>IFERROR(VLOOKUP($A20&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4435</v>
       </c>
-      <c r="W20" s="77">
+      <c r="W20" s="59">
         <f>IFERROR(VLOOKUP($A20&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4534</v>
       </c>
-      <c r="X20" s="77">
+      <c r="X20" s="59">
         <f>IFERROR(VLOOKUP($A20&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4120</v>
       </c>
-      <c r="Y20" s="77">
+      <c r="Y20" s="59">
         <f>IFERROR(VLOOKUP($A20&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="Z20" s="77">
+      <c r="Z20" s="59">
         <f>IFERROR(VLOOKUP($A20&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>6493</v>
       </c>
-      <c r="AA20" s="77">
+      <c r="AA20" s="59">
         <f>IFERROR(VLOOKUP($A20&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="AB20" s="77">
+      <c r="AB20" s="59">
         <f>IFERROR(VLOOKUP($A20&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1669</v>
       </c>
@@ -17968,110 +17968,110 @@
       <c r="A21" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="77">
+      <c r="B21" s="59">
         <f>IFERROR(VLOOKUP($A21&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="C21" s="77">
+      <c r="C21" s="59">
         <f>IFERROR(VLOOKUP($A21&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="D21" s="77">
+      <c r="D21" s="59">
         <f>IFERROR(VLOOKUP($A21&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="E21" s="77">
+      <c r="E21" s="59">
         <f>IFERROR(VLOOKUP($A21&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="F21" s="77">
+      <c r="F21" s="59">
         <f>IFERROR(VLOOKUP($A21&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="G21" s="77">
+      <c r="G21" s="59">
         <f>IFERROR(VLOOKUP($A21&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="H21" s="77">
+      <c r="H21" s="59">
         <f>IFERROR(VLOOKUP($A21&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="I21" s="77">
+      <c r="I21" s="59">
         <f>IFERROR(VLOOKUP($A21&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="J21" s="77">
+      <c r="J21" s="59">
         <f>IFERROR(VLOOKUP($A21&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="K21" s="77">
+      <c r="K21" s="59">
         <f>IFERROR(VLOOKUP($A21&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="L21" s="77">
+      <c r="L21" s="59">
         <f>IFERROR(VLOOKUP($A21&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="M21" s="77">
+      <c r="M21" s="59">
         <f>IFERROR(VLOOKUP($A21&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="N21" s="77">
+      <c r="N21" s="59">
         <f>IFERROR(VLOOKUP($A21&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="O21" s="77">
+      <c r="O21" s="59">
         <f>IFERROR(VLOOKUP($A21&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="P21" s="77">
+      <c r="P21" s="59">
         <f>IFERROR(VLOOKUP($A21&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="Q21" s="77">
+      <c r="Q21" s="59">
         <f>IFERROR(VLOOKUP($A21&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="R21" s="77">
+      <c r="R21" s="59">
         <f>IFERROR(VLOOKUP($A21&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="S21" s="77">
+      <c r="S21" s="59">
         <f>IFERROR(VLOOKUP($A21&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="T21" s="77">
+      <c r="T21" s="59">
         <f>IFERROR(VLOOKUP($A21&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="U21" s="77">
-        <v>0</v>
-      </c>
-      <c r="V21" s="77">
+      <c r="U21" s="59">
+        <v>0</v>
+      </c>
+      <c r="V21" s="59">
         <f>IFERROR(VLOOKUP($A21&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1891</v>
       </c>
-      <c r="W21" s="77">
+      <c r="W21" s="59">
         <f>IFERROR(VLOOKUP($A21&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2158</v>
       </c>
-      <c r="X21" s="77">
+      <c r="X21" s="59">
         <f>IFERROR(VLOOKUP($A21&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1759</v>
       </c>
-      <c r="Y21" s="77">
+      <c r="Y21" s="59">
         <f>IFERROR(VLOOKUP($A21&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="Z21" s="77">
+      <c r="Z21" s="59">
         <f>IFERROR(VLOOKUP($A21&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>5690</v>
       </c>
-      <c r="AA21" s="77">
+      <c r="AA21" s="59">
         <f>IFERROR(VLOOKUP($A21&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="AB21" s="77">
+      <c r="AB21" s="59">
         <f>IFERROR(VLOOKUP($A21&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4335</v>
       </c>
@@ -18080,110 +18080,110 @@
       <c r="A22" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="77">
+      <c r="B22" s="59">
         <f>IFERROR(VLOOKUP($A22&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="C22" s="77">
+      <c r="C22" s="59">
         <f>IFERROR(VLOOKUP($A22&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="D22" s="77">
+      <c r="D22" s="59">
         <f>IFERROR(VLOOKUP($A22&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="E22" s="77">
+      <c r="E22" s="59">
         <f>IFERROR(VLOOKUP($A22&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="F22" s="77">
+      <c r="F22" s="59">
         <f>IFERROR(VLOOKUP($A22&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="G22" s="77">
+      <c r="G22" s="59">
         <f>IFERROR(VLOOKUP($A22&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="H22" s="77">
+      <c r="H22" s="59">
         <f>IFERROR(VLOOKUP($A22&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="I22" s="77">
+      <c r="I22" s="59">
         <f>IFERROR(VLOOKUP($A22&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="J22" s="77">
+      <c r="J22" s="59">
         <f>IFERROR(VLOOKUP($A22&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="K22" s="77">
+      <c r="K22" s="59">
         <f>IFERROR(VLOOKUP($A22&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="L22" s="77">
+      <c r="L22" s="59">
         <f>IFERROR(VLOOKUP($A22&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="M22" s="77">
+      <c r="M22" s="59">
         <f>IFERROR(VLOOKUP($A22&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="N22" s="77">
+      <c r="N22" s="59">
         <f>IFERROR(VLOOKUP($A22&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="O22" s="77">
+      <c r="O22" s="59">
         <f>IFERROR(VLOOKUP($A22&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="P22" s="77">
+      <c r="P22" s="59">
         <f>IFERROR(VLOOKUP($A22&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="Q22" s="77">
+      <c r="Q22" s="59">
         <f>IFERROR(VLOOKUP($A22&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="R22" s="77">
+      <c r="R22" s="59">
         <f>IFERROR(VLOOKUP($A22&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="S22" s="77">
+      <c r="S22" s="59">
         <f>IFERROR(VLOOKUP($A22&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="T22" s="77">
+      <c r="T22" s="59">
         <f>IFERROR(VLOOKUP($A22&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="U22" s="77">
+      <c r="U22" s="59">
         <f>IFERROR(VLOOKUP($A22&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="V22" s="77">
-        <v>0</v>
-      </c>
-      <c r="W22" s="77">
+      <c r="V22" s="59">
+        <v>0</v>
+      </c>
+      <c r="W22" s="59">
         <f>IFERROR(VLOOKUP($A22&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2671</v>
       </c>
-      <c r="X22" s="77">
+      <c r="X22" s="59">
         <f>IFERROR(VLOOKUP($A22&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>2275</v>
       </c>
-      <c r="Y22" s="77">
+      <c r="Y22" s="59">
         <f>IFERROR(VLOOKUP($A22&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="Z22" s="77">
+      <c r="Z22" s="59">
         <f>IFERROR(VLOOKUP($A22&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>6042</v>
       </c>
-      <c r="AA22" s="77">
+      <c r="AA22" s="59">
         <f>IFERROR(VLOOKUP($A22&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="AB22" s="77">
+      <c r="AB22" s="59">
         <f>IFERROR(VLOOKUP($A22&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4859</v>
       </c>
@@ -18192,110 +18192,110 @@
       <c r="A23" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="77">
+      <c r="B23" s="59">
         <f>IFERROR(VLOOKUP($A23&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="C23" s="77">
+      <c r="C23" s="59">
         <f>IFERROR(VLOOKUP($A23&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="D23" s="77">
+      <c r="D23" s="59">
         <f>IFERROR(VLOOKUP($A23&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="E23" s="77">
+      <c r="E23" s="59">
         <f>IFERROR(VLOOKUP($A23&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="F23" s="77">
+      <c r="F23" s="59">
         <f>IFERROR(VLOOKUP($A23&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="G23" s="77">
+      <c r="G23" s="59">
         <f>IFERROR(VLOOKUP($A23&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="H23" s="77">
+      <c r="H23" s="59">
         <f>IFERROR(VLOOKUP($A23&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="I23" s="77">
+      <c r="I23" s="59">
         <f>IFERROR(VLOOKUP($A23&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="J23" s="77">
+      <c r="J23" s="59">
         <f>IFERROR(VLOOKUP($A23&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="K23" s="77">
+      <c r="K23" s="59">
         <f>IFERROR(VLOOKUP($A23&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="L23" s="77">
+      <c r="L23" s="59">
         <f>IFERROR(VLOOKUP($A23&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="M23" s="77">
+      <c r="M23" s="59">
         <f>IFERROR(VLOOKUP($A23&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="N23" s="77">
+      <c r="N23" s="59">
         <f>IFERROR(VLOOKUP($A23&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="O23" s="77">
+      <c r="O23" s="59">
         <f>IFERROR(VLOOKUP($A23&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="P23" s="77">
+      <c r="P23" s="59">
         <f>IFERROR(VLOOKUP($A23&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="Q23" s="77">
+      <c r="Q23" s="59">
         <f>IFERROR(VLOOKUP($A23&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="R23" s="77">
+      <c r="R23" s="59">
         <f>IFERROR(VLOOKUP($A23&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="S23" s="77">
+      <c r="S23" s="59">
         <f>IFERROR(VLOOKUP($A23&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="T23" s="77">
+      <c r="T23" s="59">
         <f>IFERROR(VLOOKUP($A23&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="U23" s="77">
+      <c r="U23" s="59">
         <f>IFERROR(VLOOKUP($A23&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="V23" s="77">
+      <c r="V23" s="59">
         <f>IFERROR(VLOOKUP($A23&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="W23" s="77">
-        <v>0</v>
-      </c>
-      <c r="X23" s="77">
+      <c r="W23" s="59">
+        <v>0</v>
+      </c>
+      <c r="X23" s="59">
         <f>IFERROR(VLOOKUP($A23&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1372</v>
       </c>
-      <c r="Y23" s="77">
+      <c r="Y23" s="59">
         <f>IFERROR(VLOOKUP($A23&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="Z23" s="77">
+      <c r="Z23" s="59">
         <f>IFERROR(VLOOKUP($A23&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>7628</v>
       </c>
-      <c r="AA23" s="77">
+      <c r="AA23" s="59">
         <f>IFERROR(VLOOKUP($A23&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="AB23" s="77">
+      <c r="AB23" s="59">
         <f>IFERROR(VLOOKUP($A23&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4967</v>
       </c>
@@ -18304,110 +18304,110 @@
       <c r="A24" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="77">
+      <c r="B24" s="59">
         <f>IFERROR(VLOOKUP($A24&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="C24" s="77">
+      <c r="C24" s="59">
         <f>IFERROR(VLOOKUP($A24&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="D24" s="77">
+      <c r="D24" s="59">
         <f>IFERROR(VLOOKUP($A24&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="E24" s="77">
+      <c r="E24" s="59">
         <f>IFERROR(VLOOKUP($A24&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="F24" s="77">
+      <c r="F24" s="59">
         <f>IFERROR(VLOOKUP($A24&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="G24" s="77">
+      <c r="G24" s="59">
         <f>IFERROR(VLOOKUP($A24&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="H24" s="77">
+      <c r="H24" s="59">
         <f>IFERROR(VLOOKUP($A24&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="I24" s="77">
+      <c r="I24" s="59">
         <f>IFERROR(VLOOKUP($A24&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="J24" s="77">
+      <c r="J24" s="59">
         <f>IFERROR(VLOOKUP($A24&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="K24" s="77">
+      <c r="K24" s="59">
         <f>IFERROR(VLOOKUP($A24&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="L24" s="77">
+      <c r="L24" s="59">
         <f>IFERROR(VLOOKUP($A24&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="M24" s="77">
+      <c r="M24" s="59">
         <f>IFERROR(VLOOKUP($A24&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="N24" s="77">
+      <c r="N24" s="59">
         <f>IFERROR(VLOOKUP($A24&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="O24" s="77">
+      <c r="O24" s="59">
         <f>IFERROR(VLOOKUP($A24&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="P24" s="77">
+      <c r="P24" s="59">
         <f>IFERROR(VLOOKUP($A24&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="Q24" s="77">
+      <c r="Q24" s="59">
         <f>IFERROR(VLOOKUP($A24&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="R24" s="77">
+      <c r="R24" s="59">
         <f>IFERROR(VLOOKUP($A24&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="S24" s="77">
+      <c r="S24" s="59">
         <f>IFERROR(VLOOKUP($A24&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="T24" s="77">
+      <c r="T24" s="59">
         <f>IFERROR(VLOOKUP($A24&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="U24" s="77">
+      <c r="U24" s="59">
         <f>IFERROR(VLOOKUP($A24&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="V24" s="77">
+      <c r="V24" s="59">
         <f>IFERROR(VLOOKUP($A24&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="W24" s="77">
+      <c r="W24" s="59">
         <f>IFERROR(VLOOKUP($A24&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="X24" s="77">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="77">
+      <c r="X24" s="59">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="59">
         <f>IFERROR(VLOOKUP($A24&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="Z24" s="77">
+      <c r="Z24" s="59">
         <f>IFERROR(VLOOKUP($A24&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>7232</v>
       </c>
-      <c r="AA24" s="77">
+      <c r="AA24" s="59">
         <f>IFERROR(VLOOKUP($A24&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="AB24" s="77">
+      <c r="AB24" s="59">
         <f>IFERROR(VLOOKUP($A24&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>4579</v>
       </c>
@@ -18416,110 +18416,110 @@
       <c r="A25" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="77">
+      <c r="B25" s="59">
         <f>IFERROR(VLOOKUP($A25&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="C25" s="77">
+      <c r="C25" s="59">
         <f>IFERROR(VLOOKUP($A25&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="D25" s="77">
+      <c r="D25" s="59">
         <f>IFERROR(VLOOKUP($A25&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="E25" s="77">
+      <c r="E25" s="59">
         <f>IFERROR(VLOOKUP($A25&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="F25" s="77">
+      <c r="F25" s="59">
         <f>IFERROR(VLOOKUP($A25&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="G25" s="77">
+      <c r="G25" s="59">
         <f>IFERROR(VLOOKUP($A25&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="H25" s="77">
+      <c r="H25" s="59">
         <f>IFERROR(VLOOKUP($A25&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="I25" s="77">
+      <c r="I25" s="59">
         <f>IFERROR(VLOOKUP($A25&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="J25" s="77">
+      <c r="J25" s="59">
         <f>IFERROR(VLOOKUP($A25&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="K25" s="77">
+      <c r="K25" s="59">
         <f>IFERROR(VLOOKUP($A25&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="L25" s="77">
+      <c r="L25" s="59">
         <f>IFERROR(VLOOKUP($A25&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="M25" s="77">
+      <c r="M25" s="59">
         <f>IFERROR(VLOOKUP($A25&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="N25" s="77">
+      <c r="N25" s="59">
         <f>IFERROR(VLOOKUP($A25&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="O25" s="77">
+      <c r="O25" s="59">
         <f>IFERROR(VLOOKUP($A25&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="P25" s="77">
+      <c r="P25" s="59">
         <f>IFERROR(VLOOKUP($A25&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="Q25" s="77">
+      <c r="Q25" s="59">
         <f>IFERROR(VLOOKUP($A25&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="R25" s="77">
+      <c r="R25" s="59">
         <f>IFERROR(VLOOKUP($A25&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="S25" s="77">
+      <c r="S25" s="59">
         <f>IFERROR(VLOOKUP($A25&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="T25" s="77">
+      <c r="T25" s="59">
         <f>IFERROR(VLOOKUP($A25&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="U25" s="77">
+      <c r="U25" s="59">
         <f>IFERROR(VLOOKUP($A25&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="V25" s="77">
+      <c r="V25" s="59">
         <f>IFERROR(VLOOKUP($A25&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="W25" s="77">
+      <c r="W25" s="59">
         <f>IFERROR(VLOOKUP($A25&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="X25" s="77">
+      <c r="X25" s="59">
         <f>IFERROR(VLOOKUP($A25&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="Y25" s="77">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="77">
+      <c r="Y25" s="59">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="59">
         <f>IFERROR(VLOOKUP($A25&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
-      <c r="AA25" s="77">
+      <c r="AA25" s="59">
         <f>IFERROR(VLOOKUP($A25&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>1052</v>
       </c>
-      <c r="AB25" s="77">
+      <c r="AB25" s="59">
         <f>IFERROR(VLOOKUP($A25&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
@@ -18528,110 +18528,110 @@
       <c r="A26" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="77">
+      <c r="B26" s="59">
         <f>IFERROR(VLOOKUP($A26&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="C26" s="77">
+      <c r="C26" s="59">
         <f>IFERROR(VLOOKUP($A26&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="D26" s="77">
+      <c r="D26" s="59">
         <f>IFERROR(VLOOKUP($A26&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="E26" s="77">
+      <c r="E26" s="59">
         <f>IFERROR(VLOOKUP($A26&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="F26" s="77">
+      <c r="F26" s="59">
         <f>IFERROR(VLOOKUP($A26&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="G26" s="77">
+      <c r="G26" s="59">
         <f>IFERROR(VLOOKUP($A26&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="H26" s="77">
+      <c r="H26" s="59">
         <f>IFERROR(VLOOKUP($A26&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="I26" s="77">
+      <c r="I26" s="59">
         <f>IFERROR(VLOOKUP($A26&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="J26" s="77">
+      <c r="J26" s="59">
         <f>IFERROR(VLOOKUP($A26&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="K26" s="77">
+      <c r="K26" s="59">
         <f>IFERROR(VLOOKUP($A26&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="L26" s="77">
+      <c r="L26" s="59">
         <f>IFERROR(VLOOKUP($A26&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="M26" s="77">
+      <c r="M26" s="59">
         <f>IFERROR(VLOOKUP($A26&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="N26" s="77">
+      <c r="N26" s="59">
         <f>IFERROR(VLOOKUP($A26&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="O26" s="77">
+      <c r="O26" s="59">
         <f>IFERROR(VLOOKUP($A26&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="P26" s="77">
+      <c r="P26" s="59">
         <f>IFERROR(VLOOKUP($A26&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="Q26" s="77">
+      <c r="Q26" s="59">
         <f>IFERROR(VLOOKUP($A26&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="R26" s="77">
+      <c r="R26" s="59">
         <f>IFERROR(VLOOKUP($A26&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="S26" s="77">
+      <c r="S26" s="59">
         <f>IFERROR(VLOOKUP($A26&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="T26" s="77">
+      <c r="T26" s="59">
         <f>IFERROR(VLOOKUP($A26&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="U26" s="77">
+      <c r="U26" s="59">
         <f>IFERROR(VLOOKUP($A26&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="V26" s="77">
+      <c r="V26" s="59">
         <f>IFERROR(VLOOKUP($A26&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="W26" s="77">
+      <c r="W26" s="59">
         <f>IFERROR(VLOOKUP($A26&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="X26" s="77">
+      <c r="X26" s="59">
         <f>IFERROR(VLOOKUP($A26&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="Y26" s="77">
+      <c r="Y26" s="59">
         <f>IFERROR(VLOOKUP($A26&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="Z26" s="77">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="77">
+      <c r="Z26" s="59">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="59">
         <f>IFERROR(VLOOKUP($A26&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>6080</v>
       </c>
-      <c r="AB26" s="77">
+      <c r="AB26" s="59">
         <f>IFERROR(VLOOKUP($A26&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
@@ -18640,110 +18640,110 @@
       <c r="A27" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="77">
+      <c r="B27" s="59">
         <f>IFERROR(VLOOKUP($A27&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="C27" s="77">
+      <c r="C27" s="59">
         <f>IFERROR(VLOOKUP($A27&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="D27" s="77">
+      <c r="D27" s="59">
         <f>IFERROR(VLOOKUP($A27&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="E27" s="77">
+      <c r="E27" s="59">
         <f>IFERROR(VLOOKUP($A27&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="F27" s="77">
+      <c r="F27" s="59">
         <f>IFERROR(VLOOKUP($A27&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="G27" s="77">
+      <c r="G27" s="59">
         <f>IFERROR(VLOOKUP($A27&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="H27" s="77">
+      <c r="H27" s="59">
         <f>IFERROR(VLOOKUP($A27&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="I27" s="77">
+      <c r="I27" s="59">
         <f>IFERROR(VLOOKUP($A27&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="J27" s="77">
+      <c r="J27" s="59">
         <f>IFERROR(VLOOKUP($A27&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="K27" s="77">
+      <c r="K27" s="59">
         <f>IFERROR(VLOOKUP($A27&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="L27" s="77">
+      <c r="L27" s="59">
         <f>IFERROR(VLOOKUP($A27&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="M27" s="77">
+      <c r="M27" s="59">
         <f>IFERROR(VLOOKUP($A27&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="N27" s="77">
+      <c r="N27" s="59">
         <f>IFERROR(VLOOKUP($A27&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="O27" s="77">
+      <c r="O27" s="59">
         <f>IFERROR(VLOOKUP($A27&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="P27" s="77">
+      <c r="P27" s="59">
         <f>IFERROR(VLOOKUP($A27&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="Q27" s="77">
+      <c r="Q27" s="59">
         <f>IFERROR(VLOOKUP($A27&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="R27" s="77">
+      <c r="R27" s="59">
         <f>IFERROR(VLOOKUP($A27&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="S27" s="77">
+      <c r="S27" s="59">
         <f>IFERROR(VLOOKUP($A27&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="T27" s="77">
+      <c r="T27" s="59">
         <f>IFERROR(VLOOKUP($A27&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="U27" s="77">
+      <c r="U27" s="59">
         <f>IFERROR(VLOOKUP($A27&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="V27" s="77">
+      <c r="V27" s="59">
         <f>IFERROR(VLOOKUP($A27&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="W27" s="77">
+      <c r="W27" s="59">
         <f>IFERROR(VLOOKUP($A27&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="X27" s="77">
+      <c r="X27" s="59">
         <f>IFERROR(VLOOKUP($A27&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="Y27" s="77">
+      <c r="Y27" s="59">
         <f>IFERROR(VLOOKUP($A27&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="Z27" s="77">
+      <c r="Z27" s="59">
         <f>IFERROR(VLOOKUP($A27&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="AA27" s="77">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="77">
+      <c r="AA27" s="59">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="59">
         <f>IFERROR(VLOOKUP($A27&amp;AB$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>0</v>
       </c>
@@ -18752,111 +18752,111 @@
       <c r="A28" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="77">
+      <c r="B28" s="59">
         <f>IFERROR(VLOOKUP($A28&amp;B$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="C28" s="77">
+      <c r="C28" s="59">
         <f>IFERROR(VLOOKUP($A28&amp;C$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="D28" s="77">
+      <c r="D28" s="59">
         <f>IFERROR(VLOOKUP($A28&amp;D$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="E28" s="77">
+      <c r="E28" s="59">
         <f>IFERROR(VLOOKUP($A28&amp;E$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="F28" s="77">
+      <c r="F28" s="59">
         <f>IFERROR(VLOOKUP($A28&amp;F$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="G28" s="77">
+      <c r="G28" s="59">
         <f>IFERROR(VLOOKUP($A28&amp;G$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="H28" s="77">
+      <c r="H28" s="59">
         <f>IFERROR(VLOOKUP($A28&amp;H$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="I28" s="77">
+      <c r="I28" s="59">
         <f>IFERROR(VLOOKUP($A28&amp;I$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="J28" s="77">
+      <c r="J28" s="59">
         <f>IFERROR(VLOOKUP($A28&amp;J$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="K28" s="77">
+      <c r="K28" s="59">
         <f>IFERROR(VLOOKUP($A28&amp;K$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="L28" s="77">
+      <c r="L28" s="59">
         <f>IFERROR(VLOOKUP($A28&amp;L$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="M28" s="77">
+      <c r="M28" s="59">
         <f>IFERROR(VLOOKUP($A28&amp;M$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="N28" s="77">
+      <c r="N28" s="59">
         <f>IFERROR(VLOOKUP($A28&amp;N$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="O28" s="77">
+      <c r="O28" s="59">
         <f>IFERROR(VLOOKUP($A28&amp;O$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="P28" s="77">
+      <c r="P28" s="59">
         <f>IFERROR(VLOOKUP($A28&amp;P$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="Q28" s="77">
+      <c r="Q28" s="59">
         <f>IFERROR(VLOOKUP($A28&amp;Q$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="R28" s="77">
+      <c r="R28" s="59">
         <f>IFERROR(VLOOKUP($A28&amp;R$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="S28" s="77">
+      <c r="S28" s="59">
         <f>IFERROR(VLOOKUP($A28&amp;S$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="T28" s="77">
+      <c r="T28" s="59">
         <f>IFERROR(VLOOKUP($A28&amp;T$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="U28" s="77">
+      <c r="U28" s="59">
         <f>IFERROR(VLOOKUP($A28&amp;U$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="V28" s="77">
+      <c r="V28" s="59">
         <f>IFERROR(VLOOKUP($A28&amp;V$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="W28" s="77">
+      <c r="W28" s="59">
         <f>IFERROR(VLOOKUP($A28&amp;W$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="X28" s="77">
+      <c r="X28" s="59">
         <f>IFERROR(VLOOKUP($A28&amp;X$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="Y28" s="77">
+      <c r="Y28" s="59">
         <f>IFERROR(VLOOKUP($A28&amp;Y$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="Z28" s="77">
+      <c r="Z28" s="59">
         <f>IFERROR(VLOOKUP($A28&amp;Z$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="AA28" s="77">
+      <c r="AA28" s="59">
         <f>IFERROR(VLOOKUP($A28&amp;AA$1,'27d'!$H:$I,2,FALSE),10000000)</f>
         <v>10000000</v>
       </c>
-      <c r="AB28" s="77">
+      <c r="AB28" s="59">
         <v>0</v>
       </c>
     </row>
